--- a/sequences/01_retrieval_3.xlsx
+++ b/sequences/01_retrieval_3.xlsx
@@ -55,580 +55,580 @@
     <t>type4</t>
   </si>
   <si>
-    <t>prügeln</t>
+    <t>nutzen</t>
+  </si>
+  <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>doppeln</t>
+  </si>
+  <si>
+    <t>schnellen</t>
+  </si>
+  <si>
+    <t>hacken</t>
+  </si>
+  <si>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>buchen</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>fällen</t>
+  </si>
+  <si>
+    <t>kennen</t>
+  </si>
+  <si>
+    <t>klingeln</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>schauen</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>laufen</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>zählen</t>
+  </si>
+  <si>
+    <t>regeln</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>holen</t>
+  </si>
+  <si>
+    <t>regnen</t>
+  </si>
+  <si>
+    <t>schneiden</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>krachen</t>
+  </si>
+  <si>
+    <t>kichern</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>wärmen</t>
+  </si>
+  <si>
+    <t>foltern</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>lehnen</t>
+  </si>
+  <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>flüstern</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>strahlen</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>bremsen</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>landen</t>
+  </si>
+  <si>
+    <t>wehren</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
+    <t>pressen</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>trotzen</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>stören</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>drohen</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>wahren</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>kürzen</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>opfern</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>treffen</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>reiten</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>stillen</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>sitzen</t>
+  </si>
+  <si>
+    <t>deuten</t>
+  </si>
+  <si>
+    <t>knurren</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>gnaden</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>meistern</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>hoffen</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>pissen</t>
+  </si>
+  <si>
+    <t>melden</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>leihen</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>ruhen</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>fügen</t>
+  </si>
+  <si>
+    <t>flüchten</t>
+  </si>
+  <si>
+    <t>morden</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>sprechen</t>
+  </si>
+  <si>
+    <t>binden</t>
+  </si>
+  <si>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>scheiden</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>nerven</t>
   </si>
   <si>
     <t>meinen</t>
   </si>
   <si>
-    <t>pfeifen</t>
-  </si>
-  <si>
-    <t>beichten</t>
-  </si>
-  <si>
-    <t>schleppen</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>wahren</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>ändern</t>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>nähen</t>
+  </si>
+  <si>
+    <t>zeichnen</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>wandern</t>
+  </si>
+  <si>
+    <t>stürzen</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>parken</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>stürmen</t>
+  </si>
+  <si>
+    <t>leiden</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>schwimmen</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>bilden</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>zeugen</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>schützen</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>orten</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>wecken</t>
+  </si>
+  <si>
+    <t>garen</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>mögen</t>
   </si>
   <si>
     <t>formen</t>
   </si>
   <si>
-    <t>landen</t>
-  </si>
-  <si>
-    <t>brauen</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>schlafen</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>ahnen</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>spannen</t>
-  </si>
-  <si>
-    <t>fehlen</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>träumen</t>
-  </si>
-  <si>
-    <t>werden</t>
-  </si>
-  <si>
-    <t>spuren</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>scheinen</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>fragen</t>
-  </si>
-  <si>
-    <t>leisten</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>stopfen</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>klagen</t>
-  </si>
-  <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>drehen</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>decken</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>wohnen</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>stillen</t>
-  </si>
-  <si>
-    <t>sammeln</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>socken</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>zeichnen</t>
-  </si>
-  <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>hexen</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>checken</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>wagen</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>bilden</t>
-  </si>
-  <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>widmen</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>lenken</t>
-  </si>
-  <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>leiten</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>klauen</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>baden</t>
-  </si>
-  <si>
-    <t>schauen</t>
-  </si>
-  <si>
-    <t>platzen</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>ächzen</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>stören</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>zeugen</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>bellen</t>
-  </si>
-  <si>
-    <t>meistern</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>stinken</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>boxen</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>fassen</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>klingen</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>schützen</t>
-  </si>
-  <si>
-    <t>melden</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>schlampen</t>
-  </si>
-  <si>
     <t>ehren</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>osten</t>
-  </si>
-  <si>
-    <t>putzen</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>trauen</t>
-  </si>
-  <si>
-    <t>sperren</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>stimmen</t>
-  </si>
-  <si>
-    <t>leugnen</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>kichern</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>stürzen</t>
-  </si>
-  <si>
-    <t>schwören</t>
-  </si>
-  <si>
-    <t>zielen</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>daten</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>dingen</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>greifen</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>zwingen</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>garen</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>fällen</t>
-  </si>
-  <si>
-    <t>schämen</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>liefern</t>
   </si>
   <si>
     <t>N/A</t>

--- a/sequences/01_retrieval_3.xlsx
+++ b/sequences/01_retrieval_3.xlsx
@@ -1054,388 +1054,388 @@
     <t>face</t>
   </si>
   <si>
+    <t>house/house111.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog261.jpg</t>
+  </si>
+  <si>
+    <t>house/house214.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower157.jpg</t>
+  </si>
+  <si>
+    <t>house/house196.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog128.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog112.jpg</t>
+  </si>
+  <si>
+    <t>house/house220.jpg</t>
+  </si>
+  <si>
+    <t>house/house167.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog188.jpg</t>
+  </si>
+  <si>
+    <t>house/house126.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog234.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog240.jpg</t>
+  </si>
+  <si>
+    <t>house/house254.jpg</t>
+  </si>
+  <si>
+    <t>face/face144.jpg</t>
+  </si>
+  <si>
+    <t>face/face156.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog260.jpg</t>
+  </si>
+  <si>
+    <t>face/face096.jpg</t>
+  </si>
+  <si>
+    <t>face/face221.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower206.jpg</t>
+  </si>
+  <si>
+    <t>face/face197.jpg</t>
+  </si>
+  <si>
+    <t>house/house202.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower182.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower213.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog144.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog252.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog154.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog233.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower198.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower106.jpg</t>
+  </si>
+  <si>
+    <t>house/house155.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower246.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower162.jpg</t>
+  </si>
+  <si>
+    <t>house/house113.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower121.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog170.jpg</t>
+  </si>
+  <si>
+    <t>face/face194.jpg</t>
+  </si>
+  <si>
+    <t>face/face100.jpg</t>
+  </si>
+  <si>
+    <t>face/face158.jpg</t>
+  </si>
+  <si>
+    <t>house/house119.jpg</t>
+  </si>
+  <si>
+    <t>face/face117.jpg</t>
+  </si>
+  <si>
+    <t>face/face122.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog238.jpg</t>
+  </si>
+  <si>
+    <t>face/face248.jpg</t>
+  </si>
+  <si>
+    <t>face/face173.jpg</t>
+  </si>
+  <si>
+    <t>face/face254.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower119.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower166.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower114.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower112.jpg</t>
+  </si>
+  <si>
+    <t>house/house235.jpg</t>
+  </si>
+  <si>
+    <t>face/face114.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog213.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower132.jpg</t>
+  </si>
+  <si>
+    <t>house/house107.jpg</t>
+  </si>
+  <si>
+    <t>face/face200.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower219.jpg</t>
+  </si>
+  <si>
     <t>dog/dog212.jpg</t>
   </si>
   <si>
+    <t>face/face230.jpg</t>
+  </si>
+  <si>
+    <t>house/house123.jpg</t>
+  </si>
+  <si>
+    <t>face/face141.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog102.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower146.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog237.jpg</t>
+  </si>
+  <si>
     <t>dog/dog130.jpg</t>
   </si>
   <si>
+    <t>flower/flower225.jpg</t>
+  </si>
+  <si>
+    <t>face/face121.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog129.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower242.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog226.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog165.jpg</t>
+  </si>
+  <si>
+    <t>house/house194.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower179.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower236.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower175.jpg</t>
+  </si>
+  <si>
+    <t>face/face140.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower235.jpg</t>
+  </si>
+  <si>
+    <t>face/face191.jpg</t>
+  </si>
+  <si>
+    <t>house/house180.jpg</t>
+  </si>
+  <si>
+    <t>house/house219.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower110.jpg</t>
+  </si>
+  <si>
+    <t>house/house109.jpg</t>
+  </si>
+  <si>
+    <t>face/face195.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower248.jpg</t>
+  </si>
+  <si>
+    <t>face/face250.jpg</t>
+  </si>
+  <si>
+    <t>house/house197.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog117.jpg</t>
+  </si>
+  <si>
+    <t>house/house198.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower186.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog147.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower190.jpg</t>
+  </si>
+  <si>
+    <t>house/house115.jpg</t>
+  </si>
+  <si>
+    <t>house/house144.jpg</t>
+  </si>
+  <si>
+    <t>house/house218.jpg</t>
+  </si>
+  <si>
     <t>house/house103.jpg</t>
   </si>
   <si>
-    <t>flower/flower157.jpg</t>
-  </si>
-  <si>
-    <t>house/house180.jpg</t>
-  </si>
-  <si>
-    <t>face/face248.jpg</t>
-  </si>
-  <si>
-    <t>face/face117.jpg</t>
-  </si>
-  <si>
-    <t>face/face096.jpg</t>
+    <t>face/face242.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog220.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog253.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog120.jpg</t>
+  </si>
+  <si>
+    <t>house/house192.jpg</t>
+  </si>
+  <si>
+    <t>house/house252.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower200.jpg</t>
+  </si>
+  <si>
+    <t>face/face238.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog097.jpg</t>
+  </si>
+  <si>
+    <t>face/face137.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog186.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog177.jpg</t>
+  </si>
+  <si>
+    <t>house/house110.jpg</t>
+  </si>
+  <si>
+    <t>face/face168.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower160.jpg</t>
+  </si>
+  <si>
+    <t>face/face187.jpg</t>
+  </si>
+  <si>
+    <t>face/face165.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower173.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower216.jpg</t>
+  </si>
+  <si>
+    <t>house/house182.jpg</t>
+  </si>
+  <si>
+    <t>house/house149.jpg</t>
+  </si>
+  <si>
+    <t>house/house256.jpg</t>
+  </si>
+  <si>
+    <t>face/face188.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog166.jpg</t>
+  </si>
+  <si>
+    <t>house/house229.jpg</t>
+  </si>
+  <si>
+    <t>face/face143.jpg</t>
+  </si>
+  <si>
+    <t>face/face116.jpg</t>
+  </si>
+  <si>
+    <t>face/face127.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower170.jpg</t>
   </si>
   <si>
     <t>flower/flower131.jpg</t>
   </si>
   <si>
-    <t>house/house109.jpg</t>
-  </si>
-  <si>
-    <t>house/house149.jpg</t>
-  </si>
-  <si>
-    <t>house/house214.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower186.jpg</t>
-  </si>
-  <si>
-    <t>house/house167.jpg</t>
-  </si>
-  <si>
-    <t>face/face165.jpg</t>
-  </si>
-  <si>
-    <t>face/face127.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower190.jpg</t>
-  </si>
-  <si>
-    <t>face/face197.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower146.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower175.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower121.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog220.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog234.jpg</t>
-  </si>
-  <si>
-    <t>face/face143.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog238.jpg</t>
-  </si>
-  <si>
-    <t>house/house252.jpg</t>
+    <t>house/house263.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog255.jpg</t>
   </si>
   <si>
     <t>dog/dog119.jpg</t>
-  </si>
-  <si>
-    <t>face/face195.jpg</t>
-  </si>
-  <si>
-    <t>face/face168.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog129.jpg</t>
-  </si>
-  <si>
-    <t>house/house155.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog255.jpg</t>
-  </si>
-  <si>
-    <t>house/house115.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog120.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog260.jpg</t>
-  </si>
-  <si>
-    <t>house/house263.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog188.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog097.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower179.jpg</t>
-  </si>
-  <si>
-    <t>face/face254.jpg</t>
-  </si>
-  <si>
-    <t>house/house144.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog237.jpg</t>
-  </si>
-  <si>
-    <t>house/house218.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog144.jpg</t>
-  </si>
-  <si>
-    <t>face/face187.jpg</t>
-  </si>
-  <si>
-    <t>face/face194.jpg</t>
-  </si>
-  <si>
-    <t>face/face200.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog252.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower242.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower248.jpg</t>
-  </si>
-  <si>
-    <t>face/face122.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower170.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog213.jpg</t>
-  </si>
-  <si>
-    <t>house/house219.jpg</t>
-  </si>
-  <si>
-    <t>house/house198.jpg</t>
-  </si>
-  <si>
-    <t>house/house197.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower216.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog233.jpg</t>
-  </si>
-  <si>
-    <t>face/face156.jpg</t>
-  </si>
-  <si>
-    <t>face/face141.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower132.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog170.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower166.jpg</t>
-  </si>
-  <si>
-    <t>face/face250.jpg</t>
-  </si>
-  <si>
-    <t>house/house194.jpg</t>
-  </si>
-  <si>
-    <t>face/face116.jpg</t>
-  </si>
-  <si>
-    <t>house/house123.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog186.jpg</t>
-  </si>
-  <si>
-    <t>house/house202.jpg</t>
-  </si>
-  <si>
-    <t>house/house235.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower119.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower160.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower213.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower173.jpg</t>
-  </si>
-  <si>
-    <t>house/house107.jpg</t>
-  </si>
-  <si>
-    <t>face/face221.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower235.jpg</t>
-  </si>
-  <si>
-    <t>face/face191.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower110.jpg</t>
-  </si>
-  <si>
-    <t>house/house111.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower246.jpg</t>
-  </si>
-  <si>
-    <t>house/house126.jpg</t>
-  </si>
-  <si>
-    <t>face/face173.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog154.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower162.jpg</t>
-  </si>
-  <si>
-    <t>face/face140.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog117.jpg</t>
-  </si>
-  <si>
-    <t>house/house192.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog128.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog226.jpg</t>
-  </si>
-  <si>
-    <t>house/house182.jpg</t>
-  </si>
-  <si>
-    <t>house/house196.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog177.jpg</t>
-  </si>
-  <si>
-    <t>face/face121.jpg</t>
-  </si>
-  <si>
-    <t>face/face144.jpg</t>
-  </si>
-  <si>
-    <t>house/house256.jpg</t>
-  </si>
-  <si>
-    <t>face/face114.jpg</t>
-  </si>
-  <si>
-    <t>house/house113.jpg</t>
-  </si>
-  <si>
-    <t>face/face230.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower236.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog240.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower225.jpg</t>
-  </si>
-  <si>
-    <t>face/face137.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower114.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower112.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog102.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog253.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog112.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog165.jpg</t>
-  </si>
-  <si>
-    <t>face/face100.jpg</t>
-  </si>
-  <si>
-    <t>house/house220.jpg</t>
-  </si>
-  <si>
-    <t>house/house110.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower198.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower182.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog166.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower206.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog147.jpg</t>
-  </si>
-  <si>
-    <t>face/face242.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower219.jpg</t>
-  </si>
-  <si>
-    <t>face/face188.jpg</t>
-  </si>
-  <si>
-    <t>face/face158.jpg</t>
-  </si>
-  <si>
-    <t>face/face238.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog261.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower106.jpg</t>
-  </si>
-  <si>
-    <t>house/house119.jpg</t>
-  </si>
-  <si>
-    <t>house/house229.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower200.jpg</t>
-  </si>
-  <si>
-    <t>house/house254.jpg</t>
   </si>
   <si>
     <t>other/new/uncued</t>
@@ -1911,16 +1911,16 @@
         <v>213</v>
       </c>
       <c r="G2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H2" t="s">
-        <v>227</v>
+        <v>337</v>
       </c>
       <c r="I2" t="s">
         <v>346</v>
       </c>
       <c r="J2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K2" t="s">
         <v>346</v>
@@ -1935,13 +1935,13 @@
         <v>478</v>
       </c>
       <c r="O2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P2" t="s">
         <v>479</v>
       </c>
       <c r="Q2" t="s">
-        <v>227</v>
+        <v>337</v>
       </c>
       <c r="R2" t="s">
         <v>475</v>
@@ -1979,7 +1979,7 @@
         <v>242</v>
       </c>
       <c r="H3" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="I3" t="s">
         <v>347</v>
@@ -1988,7 +1988,7 @@
         <v>344</v>
       </c>
       <c r="K3" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="L3" t="s">
         <v>475</v>
@@ -2041,10 +2041,10 @@
         <v>215</v>
       </c>
       <c r="G4" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="H4" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="I4" t="s">
         <v>348</v>
@@ -2053,7 +2053,7 @@
         <v>343</v>
       </c>
       <c r="K4" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="L4" t="s">
         <v>475</v>
@@ -2071,7 +2071,7 @@
         <v>474</v>
       </c>
       <c r="Q4" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="R4" t="s">
         <v>479</v>
@@ -2106,10 +2106,10 @@
         <v>216</v>
       </c>
       <c r="G5" t="s">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c r="H5" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="I5" t="s">
         <v>349</v>
@@ -2124,7 +2124,7 @@
         <v>474</v>
       </c>
       <c r="M5" t="s">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c r="N5" t="s">
         <v>479</v>
@@ -2136,7 +2136,7 @@
         <v>478</v>
       </c>
       <c r="Q5" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="R5" t="s">
         <v>475</v>
@@ -2239,7 +2239,7 @@
         <v>314</v>
       </c>
       <c r="H7" t="s">
-        <v>337</v>
+        <v>284</v>
       </c>
       <c r="I7" t="s">
         <v>350</v>
@@ -2266,7 +2266,7 @@
         <v>479</v>
       </c>
       <c r="Q7" t="s">
-        <v>337</v>
+        <v>284</v>
       </c>
       <c r="R7" t="s">
         <v>475</v>
@@ -2369,16 +2369,16 @@
         <v>300</v>
       </c>
       <c r="H9" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="I9" t="s">
         <v>351</v>
       </c>
       <c r="J9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K9" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="L9" t="s">
         <v>475</v>
@@ -2431,19 +2431,19 @@
         <v>220</v>
       </c>
       <c r="G10" t="s">
-        <v>241</v>
+        <v>321</v>
       </c>
       <c r="H10" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="I10" t="s">
         <v>352</v>
       </c>
       <c r="J10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K10" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="L10" t="s">
         <v>475</v>
@@ -2455,7 +2455,7 @@
         <v>478</v>
       </c>
       <c r="O10" t="s">
-        <v>241</v>
+        <v>321</v>
       </c>
       <c r="P10" t="s">
         <v>479</v>
@@ -2561,16 +2561,16 @@
         <v>221</v>
       </c>
       <c r="G12" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="H12" t="s">
-        <v>294</v>
+        <v>230</v>
       </c>
       <c r="I12" t="s">
         <v>353</v>
       </c>
       <c r="J12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K12" t="s">
         <v>221</v>
@@ -2585,13 +2585,13 @@
         <v>474</v>
       </c>
       <c r="O12" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="P12" t="s">
         <v>479</v>
       </c>
       <c r="Q12" t="s">
-        <v>294</v>
+        <v>230</v>
       </c>
       <c r="R12" t="s">
         <v>475</v>
@@ -2756,19 +2756,19 @@
         <v>222</v>
       </c>
       <c r="G15" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="H15" t="s">
-        <v>241</v>
+        <v>296</v>
       </c>
       <c r="I15" t="s">
         <v>354</v>
       </c>
       <c r="J15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K15" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="L15" t="s">
         <v>479</v>
@@ -2786,7 +2786,7 @@
         <v>478</v>
       </c>
       <c r="Q15" t="s">
-        <v>241</v>
+        <v>296</v>
       </c>
       <c r="R15" t="s">
         <v>475</v>
@@ -2824,16 +2824,16 @@
         <v>332</v>
       </c>
       <c r="H16" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="I16" t="s">
         <v>355</v>
       </c>
       <c r="J16" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K16" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="L16" t="s">
         <v>475</v>
@@ -2886,10 +2886,10 @@
         <v>224</v>
       </c>
       <c r="G17" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="H17" t="s">
-        <v>318</v>
+        <v>250</v>
       </c>
       <c r="I17" t="s">
         <v>356</v>
@@ -2904,13 +2904,13 @@
         <v>478</v>
       </c>
       <c r="M17" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="N17" t="s">
         <v>479</v>
       </c>
       <c r="O17" t="s">
-        <v>318</v>
+        <v>250</v>
       </c>
       <c r="P17" t="s">
         <v>475</v>
@@ -2954,13 +2954,13 @@
         <v>283</v>
       </c>
       <c r="H18" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="I18" t="s">
         <v>357</v>
       </c>
       <c r="J18" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K18" t="s">
         <v>283</v>
@@ -2975,7 +2975,7 @@
         <v>474</v>
       </c>
       <c r="O18" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="P18" t="s">
         <v>475</v>
@@ -3084,13 +3084,13 @@
         <v>223</v>
       </c>
       <c r="H20" t="s">
-        <v>334</v>
+        <v>267</v>
       </c>
       <c r="I20" t="s">
         <v>358</v>
       </c>
       <c r="J20" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K20" t="s">
         <v>226</v>
@@ -3105,7 +3105,7 @@
         <v>474</v>
       </c>
       <c r="O20" t="s">
-        <v>334</v>
+        <v>267</v>
       </c>
       <c r="P20" t="s">
         <v>475</v>
@@ -3146,10 +3146,10 @@
         <v>227</v>
       </c>
       <c r="G21" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="H21" t="s">
-        <v>231</v>
+        <v>335</v>
       </c>
       <c r="I21" t="s">
         <v>359</v>
@@ -3170,13 +3170,13 @@
         <v>474</v>
       </c>
       <c r="O21" t="s">
-        <v>231</v>
+        <v>335</v>
       </c>
       <c r="P21" t="s">
         <v>475</v>
       </c>
       <c r="Q21" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="R21" t="s">
         <v>479</v>
@@ -3211,10 +3211,10 @@
         <v>228</v>
       </c>
       <c r="G22" t="s">
-        <v>321</v>
+        <v>251</v>
       </c>
       <c r="H22" t="s">
-        <v>332</v>
+        <v>235</v>
       </c>
       <c r="I22" t="s">
         <v>360</v>
@@ -3223,13 +3223,13 @@
         <v>345</v>
       </c>
       <c r="K22" t="s">
-        <v>332</v>
+        <v>235</v>
       </c>
       <c r="L22" t="s">
         <v>475</v>
       </c>
       <c r="M22" t="s">
-        <v>321</v>
+        <v>251</v>
       </c>
       <c r="N22" t="s">
         <v>479</v>
@@ -3341,10 +3341,10 @@
         <v>229</v>
       </c>
       <c r="G24" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="H24" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="I24" t="s">
         <v>361</v>
@@ -3353,7 +3353,7 @@
         <v>345</v>
       </c>
       <c r="K24" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="L24" t="s">
         <v>475</v>
@@ -3365,7 +3365,7 @@
         <v>478</v>
       </c>
       <c r="O24" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="P24" t="s">
         <v>479</v>
@@ -3409,16 +3409,16 @@
         <v>274</v>
       </c>
       <c r="H25" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="I25" t="s">
         <v>362</v>
       </c>
       <c r="J25" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K25" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="L25" t="s">
         <v>475</v>
@@ -3539,7 +3539,7 @@
         <v>319</v>
       </c>
       <c r="H27" t="s">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="I27" t="s">
         <v>363</v>
@@ -3560,7 +3560,7 @@
         <v>479</v>
       </c>
       <c r="O27" t="s">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="P27" t="s">
         <v>475</v>
@@ -3666,25 +3666,25 @@
         <v>232</v>
       </c>
       <c r="G29" t="s">
-        <v>252</v>
+        <v>304</v>
       </c>
       <c r="H29" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="I29" t="s">
         <v>364</v>
       </c>
       <c r="J29" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K29" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="L29" t="s">
         <v>475</v>
       </c>
       <c r="M29" t="s">
-        <v>252</v>
+        <v>304</v>
       </c>
       <c r="N29" t="s">
         <v>479</v>
@@ -3734,7 +3734,7 @@
         <v>329</v>
       </c>
       <c r="H30" t="s">
-        <v>299</v>
+        <v>241</v>
       </c>
       <c r="I30" t="s">
         <v>365</v>
@@ -3761,7 +3761,7 @@
         <v>480</v>
       </c>
       <c r="Q30" t="s">
-        <v>299</v>
+        <v>241</v>
       </c>
       <c r="R30" t="s">
         <v>475</v>
@@ -3799,13 +3799,13 @@
         <v>231</v>
       </c>
       <c r="H31" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="I31" t="s">
         <v>366</v>
       </c>
       <c r="J31" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K31" t="s">
         <v>234</v>
@@ -3826,7 +3826,7 @@
         <v>474</v>
       </c>
       <c r="Q31" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="R31" t="s">
         <v>475</v>
@@ -3864,13 +3864,13 @@
         <v>218</v>
       </c>
       <c r="H32" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="I32" t="s">
         <v>367</v>
       </c>
       <c r="J32" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K32" t="s">
         <v>218</v>
@@ -3879,7 +3879,7 @@
         <v>479</v>
       </c>
       <c r="M32" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="N32" t="s">
         <v>475</v>
@@ -3994,16 +3994,16 @@
         <v>286</v>
       </c>
       <c r="H34" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="I34" t="s">
         <v>368</v>
       </c>
       <c r="J34" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K34" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="L34" t="s">
         <v>475</v>
@@ -4059,16 +4059,16 @@
         <v>320</v>
       </c>
       <c r="H35" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I35" t="s">
         <v>369</v>
       </c>
       <c r="J35" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K35" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="L35" t="s">
         <v>475</v>
@@ -4124,7 +4124,7 @@
         <v>305</v>
       </c>
       <c r="H36" t="s">
-        <v>229</v>
+        <v>308</v>
       </c>
       <c r="I36" t="s">
         <v>370</v>
@@ -4133,7 +4133,7 @@
         <v>344</v>
       </c>
       <c r="K36" t="s">
-        <v>229</v>
+        <v>308</v>
       </c>
       <c r="L36" t="s">
         <v>475</v>
@@ -4186,19 +4186,19 @@
         <v>239</v>
       </c>
       <c r="G37" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="H37" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="I37" t="s">
         <v>371</v>
       </c>
       <c r="J37" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K37" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="L37" t="s">
         <v>475</v>
@@ -4210,7 +4210,7 @@
         <v>474</v>
       </c>
       <c r="O37" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="P37" t="s">
         <v>479</v>
@@ -4319,7 +4319,7 @@
         <v>275</v>
       </c>
       <c r="H39" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="I39" t="s">
         <v>372</v>
@@ -4340,7 +4340,7 @@
         <v>474</v>
       </c>
       <c r="O39" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="P39" t="s">
         <v>475</v>
@@ -4381,19 +4381,19 @@
         <v>241</v>
       </c>
       <c r="G40" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="H40" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="I40" t="s">
         <v>373</v>
       </c>
       <c r="J40" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K40" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="L40" t="s">
         <v>475</v>
@@ -4405,7 +4405,7 @@
         <v>474</v>
       </c>
       <c r="O40" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="P40" t="s">
         <v>479</v>
@@ -4514,13 +4514,13 @@
         <v>245</v>
       </c>
       <c r="H42" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="I42" t="s">
         <v>374</v>
       </c>
       <c r="J42" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K42" t="s">
         <v>374</v>
@@ -4535,7 +4535,7 @@
         <v>479</v>
       </c>
       <c r="O42" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P42" t="s">
         <v>475</v>
@@ -4579,16 +4579,16 @@
         <v>270</v>
       </c>
       <c r="H43" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="I43" t="s">
         <v>375</v>
       </c>
       <c r="J43" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K43" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="L43" t="s">
         <v>475</v>
@@ -4644,7 +4644,7 @@
         <v>278</v>
       </c>
       <c r="H44" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="I44" t="s">
         <v>376</v>
@@ -4653,7 +4653,7 @@
         <v>343</v>
       </c>
       <c r="K44" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="L44" t="s">
         <v>475</v>
@@ -4774,13 +4774,13 @@
         <v>296</v>
       </c>
       <c r="H46" t="s">
-        <v>273</v>
+        <v>341</v>
       </c>
       <c r="I46" t="s">
         <v>377</v>
       </c>
       <c r="J46" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K46" t="s">
         <v>377</v>
@@ -4789,7 +4789,7 @@
         <v>474</v>
       </c>
       <c r="M46" t="s">
-        <v>273</v>
+        <v>341</v>
       </c>
       <c r="N46" t="s">
         <v>475</v>
@@ -4836,16 +4836,16 @@
         <v>246</v>
       </c>
       <c r="G47" t="s">
-        <v>295</v>
+        <v>215</v>
       </c>
       <c r="H47" t="s">
-        <v>335</v>
+        <v>281</v>
       </c>
       <c r="I47" t="s">
         <v>378</v>
       </c>
       <c r="J47" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K47" t="s">
         <v>246</v>
@@ -4860,13 +4860,13 @@
         <v>474</v>
       </c>
       <c r="O47" t="s">
-        <v>295</v>
+        <v>215</v>
       </c>
       <c r="P47" t="s">
         <v>479</v>
       </c>
       <c r="Q47" t="s">
-        <v>335</v>
+        <v>281</v>
       </c>
       <c r="R47" t="s">
         <v>475</v>
@@ -4904,13 +4904,13 @@
         <v>226</v>
       </c>
       <c r="H48" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="I48" t="s">
         <v>379</v>
       </c>
       <c r="J48" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K48" t="s">
         <v>247</v>
@@ -4931,7 +4931,7 @@
         <v>479</v>
       </c>
       <c r="Q48" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="R48" t="s">
         <v>475</v>
@@ -4969,13 +4969,13 @@
         <v>262</v>
       </c>
       <c r="H49" t="s">
-        <v>279</v>
+        <v>339</v>
       </c>
       <c r="I49" t="s">
         <v>380</v>
       </c>
       <c r="J49" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K49" t="s">
         <v>262</v>
@@ -4984,7 +4984,7 @@
         <v>479</v>
       </c>
       <c r="M49" t="s">
-        <v>279</v>
+        <v>339</v>
       </c>
       <c r="N49" t="s">
         <v>475</v>
@@ -5031,16 +5031,16 @@
         <v>249</v>
       </c>
       <c r="G50" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="H50" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="I50" t="s">
         <v>381</v>
       </c>
       <c r="J50" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K50" t="s">
         <v>249</v>
@@ -5055,13 +5055,13 @@
         <v>474</v>
       </c>
       <c r="O50" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="P50" t="s">
         <v>479</v>
       </c>
       <c r="Q50" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="R50" t="s">
         <v>475</v>
@@ -5359,13 +5359,13 @@
         <v>289</v>
       </c>
       <c r="H55" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="I55" t="s">
         <v>382</v>
       </c>
       <c r="J55" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K55" t="s">
         <v>382</v>
@@ -5374,7 +5374,7 @@
         <v>474</v>
       </c>
       <c r="M55" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="N55" t="s">
         <v>475</v>
@@ -5421,19 +5421,19 @@
         <v>251</v>
       </c>
       <c r="G56" t="s">
-        <v>330</v>
+        <v>213</v>
       </c>
       <c r="H56" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="I56" t="s">
         <v>383</v>
       </c>
       <c r="J56" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K56" t="s">
-        <v>330</v>
+        <v>213</v>
       </c>
       <c r="L56" t="s">
         <v>479</v>
@@ -5451,7 +5451,7 @@
         <v>474</v>
       </c>
       <c r="Q56" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="R56" t="s">
         <v>475</v>
@@ -5551,25 +5551,25 @@
         <v>252</v>
       </c>
       <c r="G58" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="H58" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I58" t="s">
         <v>384</v>
       </c>
       <c r="J58" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K58" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L58" t="s">
         <v>475</v>
       </c>
       <c r="M58" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="N58" t="s">
         <v>479</v>
@@ -5616,16 +5616,16 @@
         <v>253</v>
       </c>
       <c r="G59" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="H59" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="I59" t="s">
         <v>385</v>
       </c>
       <c r="J59" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K59" t="s">
         <v>385</v>
@@ -5634,7 +5634,7 @@
         <v>474</v>
       </c>
       <c r="M59" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="N59" t="s">
         <v>475</v>
@@ -5646,7 +5646,7 @@
         <v>478</v>
       </c>
       <c r="Q59" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="R59" t="s">
         <v>479</v>
@@ -5681,25 +5681,25 @@
         <v>254</v>
       </c>
       <c r="G60" t="s">
-        <v>304</v>
+        <v>232</v>
       </c>
       <c r="H60" t="s">
-        <v>243</v>
+        <v>294</v>
       </c>
       <c r="I60" t="s">
         <v>386</v>
       </c>
       <c r="J60" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K60" t="s">
-        <v>304</v>
+        <v>232</v>
       </c>
       <c r="L60" t="s">
         <v>479</v>
       </c>
       <c r="M60" t="s">
-        <v>243</v>
+        <v>294</v>
       </c>
       <c r="N60" t="s">
         <v>475</v>
@@ -5746,25 +5746,25 @@
         <v>255</v>
       </c>
       <c r="G61" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="H61" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="I61" t="s">
         <v>387</v>
       </c>
       <c r="J61" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K61" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="L61" t="s">
         <v>479</v>
       </c>
       <c r="M61" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="N61" t="s">
         <v>475</v>
@@ -5944,16 +5944,16 @@
         <v>244</v>
       </c>
       <c r="H64" t="s">
-        <v>312</v>
+        <v>252</v>
       </c>
       <c r="I64" t="s">
         <v>388</v>
       </c>
       <c r="J64" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K64" t="s">
-        <v>312</v>
+        <v>252</v>
       </c>
       <c r="L64" t="s">
         <v>475</v>
@@ -6006,16 +6006,16 @@
         <v>257</v>
       </c>
       <c r="G65" t="s">
-        <v>271</v>
+        <v>311</v>
       </c>
       <c r="H65" t="s">
-        <v>313</v>
+        <v>226</v>
       </c>
       <c r="I65" t="s">
         <v>389</v>
       </c>
       <c r="J65" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K65" t="s">
         <v>257</v>
@@ -6024,7 +6024,7 @@
         <v>478</v>
       </c>
       <c r="M65" t="s">
-        <v>313</v>
+        <v>226</v>
       </c>
       <c r="N65" t="s">
         <v>475</v>
@@ -6036,7 +6036,7 @@
         <v>474</v>
       </c>
       <c r="Q65" t="s">
-        <v>271</v>
+        <v>311</v>
       </c>
       <c r="R65" t="s">
         <v>479</v>
@@ -6139,7 +6139,7 @@
         <v>261</v>
       </c>
       <c r="H67" t="s">
-        <v>226</v>
+        <v>332</v>
       </c>
       <c r="I67" t="s">
         <v>390</v>
@@ -6160,7 +6160,7 @@
         <v>479</v>
       </c>
       <c r="O67" t="s">
-        <v>226</v>
+        <v>332</v>
       </c>
       <c r="P67" t="s">
         <v>475</v>
@@ -6266,10 +6266,10 @@
         <v>259</v>
       </c>
       <c r="G69" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H69" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="I69" t="s">
         <v>391</v>
@@ -6284,7 +6284,7 @@
         <v>478</v>
       </c>
       <c r="M69" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N69" t="s">
         <v>479</v>
@@ -6296,7 +6296,7 @@
         <v>474</v>
       </c>
       <c r="Q69" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="R69" t="s">
         <v>475</v>
@@ -6396,16 +6396,16 @@
         <v>260</v>
       </c>
       <c r="G71" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="H71" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I71" t="s">
         <v>392</v>
       </c>
       <c r="J71" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K71" t="s">
         <v>260</v>
@@ -6414,7 +6414,7 @@
         <v>478</v>
       </c>
       <c r="M71" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N71" t="s">
         <v>475</v>
@@ -6426,7 +6426,7 @@
         <v>474</v>
       </c>
       <c r="Q71" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="R71" t="s">
         <v>479</v>
@@ -6464,16 +6464,16 @@
         <v>327</v>
       </c>
       <c r="H72" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="I72" t="s">
         <v>393</v>
       </c>
       <c r="J72" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K72" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="L72" t="s">
         <v>475</v>
@@ -6529,7 +6529,7 @@
         <v>250</v>
       </c>
       <c r="H73" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="I73" t="s">
         <v>394</v>
@@ -6544,7 +6544,7 @@
         <v>474</v>
       </c>
       <c r="M73" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="N73" t="s">
         <v>475</v>
@@ -6594,7 +6594,7 @@
         <v>225</v>
       </c>
       <c r="H74" t="s">
-        <v>301</v>
+        <v>220</v>
       </c>
       <c r="I74" t="s">
         <v>395</v>
@@ -6609,7 +6609,7 @@
         <v>478</v>
       </c>
       <c r="M74" t="s">
-        <v>301</v>
+        <v>220</v>
       </c>
       <c r="N74" t="s">
         <v>475</v>
@@ -6786,16 +6786,16 @@
         <v>264</v>
       </c>
       <c r="G77" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="H77" t="s">
-        <v>240</v>
+        <v>298</v>
       </c>
       <c r="I77" t="s">
         <v>396</v>
       </c>
       <c r="J77" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K77" t="s">
         <v>396</v>
@@ -6804,7 +6804,7 @@
         <v>474</v>
       </c>
       <c r="M77" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="N77" t="s">
         <v>479</v>
@@ -6816,7 +6816,7 @@
         <v>478</v>
       </c>
       <c r="Q77" t="s">
-        <v>240</v>
+        <v>298</v>
       </c>
       <c r="R77" t="s">
         <v>475</v>
@@ -6916,16 +6916,16 @@
         <v>265</v>
       </c>
       <c r="G79" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H79" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="I79" t="s">
         <v>397</v>
       </c>
       <c r="J79" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K79" t="s">
         <v>397</v>
@@ -6940,13 +6940,13 @@
         <v>478</v>
       </c>
       <c r="O79" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="P79" t="s">
         <v>479</v>
       </c>
       <c r="Q79" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="R79" t="s">
         <v>475</v>
@@ -6984,7 +6984,7 @@
         <v>230</v>
       </c>
       <c r="H80" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="I80" t="s">
         <v>398</v>
@@ -7011,7 +7011,7 @@
         <v>474</v>
       </c>
       <c r="Q80" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="R80" t="s">
         <v>475</v>
@@ -7046,25 +7046,25 @@
         <v>267</v>
       </c>
       <c r="G81" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="H81" t="s">
-        <v>245</v>
+        <v>303</v>
       </c>
       <c r="I81" t="s">
         <v>399</v>
       </c>
       <c r="J81" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K81" t="s">
-        <v>245</v>
+        <v>303</v>
       </c>
       <c r="L81" t="s">
         <v>475</v>
       </c>
       <c r="M81" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="N81" t="s">
         <v>479</v>
@@ -7111,10 +7111,10 @@
         <v>268</v>
       </c>
       <c r="G82" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="H82" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="I82" t="s">
         <v>400</v>
@@ -7135,13 +7135,13 @@
         <v>478</v>
       </c>
       <c r="O82" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="P82" t="s">
         <v>475</v>
       </c>
       <c r="Q82" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="R82" t="s">
         <v>479</v>
@@ -7241,25 +7241,25 @@
         <v>269</v>
       </c>
       <c r="G84" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="H84" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I84" t="s">
         <v>401</v>
       </c>
       <c r="J84" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K84" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="L84" t="s">
         <v>479</v>
       </c>
       <c r="M84" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N84" t="s">
         <v>475</v>
@@ -7374,7 +7374,7 @@
         <v>237</v>
       </c>
       <c r="H86" t="s">
-        <v>339</v>
+        <v>213</v>
       </c>
       <c r="I86" t="s">
         <v>402</v>
@@ -7383,7 +7383,7 @@
         <v>342</v>
       </c>
       <c r="K86" t="s">
-        <v>339</v>
+        <v>213</v>
       </c>
       <c r="L86" t="s">
         <v>475</v>
@@ -7436,10 +7436,10 @@
         <v>271</v>
       </c>
       <c r="G87" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="H87" t="s">
-        <v>215</v>
+        <v>293</v>
       </c>
       <c r="I87" t="s">
         <v>403</v>
@@ -7460,13 +7460,13 @@
         <v>474</v>
       </c>
       <c r="O87" t="s">
-        <v>215</v>
+        <v>293</v>
       </c>
       <c r="P87" t="s">
         <v>475</v>
       </c>
       <c r="Q87" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="R87" t="s">
         <v>479</v>
@@ -7566,10 +7566,10 @@
         <v>272</v>
       </c>
       <c r="G89" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="H89" t="s">
-        <v>302</v>
+        <v>244</v>
       </c>
       <c r="I89" t="s">
         <v>404</v>
@@ -7578,7 +7578,7 @@
         <v>345</v>
       </c>
       <c r="K89" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="L89" t="s">
         <v>479</v>
@@ -7596,7 +7596,7 @@
         <v>478</v>
       </c>
       <c r="Q89" t="s">
-        <v>302</v>
+        <v>244</v>
       </c>
       <c r="R89" t="s">
         <v>475</v>
@@ -7631,25 +7631,25 @@
         <v>273</v>
       </c>
       <c r="G90" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="H90" t="s">
-        <v>223</v>
+        <v>274</v>
       </c>
       <c r="I90" t="s">
         <v>405</v>
       </c>
       <c r="J90" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K90" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="L90" t="s">
         <v>479</v>
       </c>
       <c r="M90" t="s">
-        <v>223</v>
+        <v>274</v>
       </c>
       <c r="N90" t="s">
         <v>475</v>
@@ -7764,13 +7764,13 @@
         <v>243</v>
       </c>
       <c r="H92" t="s">
-        <v>228</v>
+        <v>297</v>
       </c>
       <c r="I92" t="s">
         <v>406</v>
       </c>
       <c r="J92" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K92" t="s">
         <v>274</v>
@@ -7779,7 +7779,7 @@
         <v>480</v>
       </c>
       <c r="M92" t="s">
-        <v>228</v>
+        <v>297</v>
       </c>
       <c r="N92" t="s">
         <v>475</v>
@@ -7829,7 +7829,7 @@
         <v>315</v>
       </c>
       <c r="H93" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="I93" t="s">
         <v>407</v>
@@ -7850,7 +7850,7 @@
         <v>480</v>
       </c>
       <c r="O93" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="P93" t="s">
         <v>475</v>
@@ -7891,10 +7891,10 @@
         <v>276</v>
       </c>
       <c r="G94" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H94" t="s">
-        <v>325</v>
+        <v>239</v>
       </c>
       <c r="I94" t="s">
         <v>408</v>
@@ -7915,13 +7915,13 @@
         <v>478</v>
       </c>
       <c r="O94" t="s">
-        <v>325</v>
+        <v>239</v>
       </c>
       <c r="P94" t="s">
         <v>475</v>
       </c>
       <c r="Q94" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R94" t="s">
         <v>479</v>
@@ -8024,16 +8024,16 @@
         <v>335</v>
       </c>
       <c r="H96" t="s">
-        <v>282</v>
+        <v>331</v>
       </c>
       <c r="I96" t="s">
         <v>409</v>
       </c>
       <c r="J96" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K96" t="s">
-        <v>282</v>
+        <v>331</v>
       </c>
       <c r="L96" t="s">
         <v>475</v>
@@ -8089,13 +8089,13 @@
         <v>338</v>
       </c>
       <c r="H97" t="s">
-        <v>214</v>
+        <v>304</v>
       </c>
       <c r="I97" t="s">
         <v>410</v>
       </c>
       <c r="J97" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K97" t="s">
         <v>278</v>
@@ -8110,7 +8110,7 @@
         <v>479</v>
       </c>
       <c r="O97" t="s">
-        <v>214</v>
+        <v>304</v>
       </c>
       <c r="P97" t="s">
         <v>475</v>
@@ -8151,16 +8151,16 @@
         <v>279</v>
       </c>
       <c r="G98" t="s">
-        <v>254</v>
+        <v>326</v>
       </c>
       <c r="H98" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="I98" t="s">
         <v>411</v>
       </c>
       <c r="J98" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K98" t="s">
         <v>411</v>
@@ -8169,13 +8169,13 @@
         <v>474</v>
       </c>
       <c r="M98" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="N98" t="s">
         <v>475</v>
       </c>
       <c r="O98" t="s">
-        <v>254</v>
+        <v>326</v>
       </c>
       <c r="P98" t="s">
         <v>479</v>
@@ -8281,19 +8281,19 @@
         <v>280</v>
       </c>
       <c r="G100" t="s">
-        <v>322</v>
+        <v>249</v>
       </c>
       <c r="H100" t="s">
-        <v>296</v>
+        <v>236</v>
       </c>
       <c r="I100" t="s">
         <v>412</v>
       </c>
       <c r="J100" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K100" t="s">
-        <v>322</v>
+        <v>249</v>
       </c>
       <c r="L100" t="s">
         <v>479</v>
@@ -8311,7 +8311,7 @@
         <v>474</v>
       </c>
       <c r="Q100" t="s">
-        <v>296</v>
+        <v>236</v>
       </c>
       <c r="R100" t="s">
         <v>475</v>
@@ -8346,10 +8346,10 @@
         <v>281</v>
       </c>
       <c r="G101" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="H101" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="I101" t="s">
         <v>413</v>
@@ -8358,13 +8358,13 @@
         <v>344</v>
       </c>
       <c r="K101" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="L101" t="s">
         <v>475</v>
       </c>
       <c r="M101" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="N101" t="s">
         <v>479</v>
@@ -8414,13 +8414,13 @@
         <v>235</v>
       </c>
       <c r="H102" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="I102" t="s">
         <v>414</v>
       </c>
       <c r="J102" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K102" t="s">
         <v>282</v>
@@ -8441,7 +8441,7 @@
         <v>479</v>
       </c>
       <c r="Q102" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="R102" t="s">
         <v>475</v>
@@ -8544,13 +8544,13 @@
         <v>288</v>
       </c>
       <c r="H104" t="s">
-        <v>261</v>
+        <v>323</v>
       </c>
       <c r="I104" t="s">
         <v>415</v>
       </c>
       <c r="J104" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K104" t="s">
         <v>283</v>
@@ -8559,7 +8559,7 @@
         <v>478</v>
       </c>
       <c r="M104" t="s">
-        <v>261</v>
+        <v>323</v>
       </c>
       <c r="N104" t="s">
         <v>475</v>
@@ -8609,13 +8609,13 @@
         <v>248</v>
       </c>
       <c r="H105" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="I105" t="s">
         <v>416</v>
       </c>
       <c r="J105" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K105" t="s">
         <v>248</v>
@@ -8630,7 +8630,7 @@
         <v>474</v>
       </c>
       <c r="O105" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="P105" t="s">
         <v>475</v>
@@ -8739,13 +8739,13 @@
         <v>256</v>
       </c>
       <c r="H107" t="s">
-        <v>257</v>
+        <v>300</v>
       </c>
       <c r="I107" t="s">
         <v>417</v>
       </c>
       <c r="J107" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K107" t="s">
         <v>285</v>
@@ -8766,7 +8766,7 @@
         <v>474</v>
       </c>
       <c r="Q107" t="s">
-        <v>257</v>
+        <v>300</v>
       </c>
       <c r="R107" t="s">
         <v>475</v>
@@ -8804,7 +8804,7 @@
         <v>233</v>
       </c>
       <c r="H108" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="I108" t="s">
         <v>418</v>
@@ -8813,7 +8813,7 @@
         <v>342</v>
       </c>
       <c r="K108" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="L108" t="s">
         <v>475</v>
@@ -8999,13 +8999,13 @@
         <v>282</v>
       </c>
       <c r="H111" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="I111" t="s">
         <v>420</v>
       </c>
       <c r="J111" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K111" t="s">
         <v>282</v>
@@ -9020,7 +9020,7 @@
         <v>474</v>
       </c>
       <c r="O111" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="P111" t="s">
         <v>475</v>
@@ -9064,7 +9064,7 @@
         <v>219</v>
       </c>
       <c r="H112" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="I112" t="s">
         <v>421</v>
@@ -9073,7 +9073,7 @@
         <v>345</v>
       </c>
       <c r="K112" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="L112" t="s">
         <v>475</v>
@@ -9256,10 +9256,10 @@
         <v>290</v>
       </c>
       <c r="G115" t="s">
-        <v>227</v>
+        <v>331</v>
       </c>
       <c r="H115" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="I115" t="s">
         <v>422</v>
@@ -9268,7 +9268,7 @@
         <v>342</v>
       </c>
       <c r="K115" t="s">
-        <v>227</v>
+        <v>331</v>
       </c>
       <c r="L115" t="s">
         <v>479</v>
@@ -9286,7 +9286,7 @@
         <v>474</v>
       </c>
       <c r="Q115" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="R115" t="s">
         <v>475</v>
@@ -9386,10 +9386,10 @@
         <v>291</v>
       </c>
       <c r="G117" t="s">
-        <v>215</v>
+        <v>279</v>
       </c>
       <c r="H117" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="I117" t="s">
         <v>423</v>
@@ -9404,13 +9404,13 @@
         <v>474</v>
       </c>
       <c r="M117" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="N117" t="s">
         <v>475</v>
       </c>
       <c r="O117" t="s">
-        <v>215</v>
+        <v>279</v>
       </c>
       <c r="P117" t="s">
         <v>479</v>
@@ -9451,16 +9451,16 @@
         <v>292</v>
       </c>
       <c r="G118" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="H118" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="I118" t="s">
         <v>424</v>
       </c>
       <c r="J118" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K118" t="s">
         <v>424</v>
@@ -9469,13 +9469,13 @@
         <v>474</v>
       </c>
       <c r="M118" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="N118" t="s">
         <v>475</v>
       </c>
       <c r="O118" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="P118" t="s">
         <v>479</v>
@@ -9581,10 +9581,10 @@
         <v>293</v>
       </c>
       <c r="G120" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="H120" t="s">
-        <v>219</v>
+        <v>340</v>
       </c>
       <c r="I120" t="s">
         <v>425</v>
@@ -9599,13 +9599,13 @@
         <v>478</v>
       </c>
       <c r="M120" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="N120" t="s">
         <v>479</v>
       </c>
       <c r="O120" t="s">
-        <v>219</v>
+        <v>340</v>
       </c>
       <c r="P120" t="s">
         <v>475</v>
@@ -9714,7 +9714,7 @@
         <v>236</v>
       </c>
       <c r="H122" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="I122" t="s">
         <v>426</v>
@@ -9741,7 +9741,7 @@
         <v>474</v>
       </c>
       <c r="Q122" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="R122" t="s">
         <v>475</v>
@@ -9906,10 +9906,10 @@
         <v>295</v>
       </c>
       <c r="G125" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H125" t="s">
-        <v>336</v>
+        <v>231</v>
       </c>
       <c r="I125" t="s">
         <v>427</v>
@@ -9930,13 +9930,13 @@
         <v>478</v>
       </c>
       <c r="O125" t="s">
-        <v>336</v>
+        <v>231</v>
       </c>
       <c r="P125" t="s">
         <v>475</v>
       </c>
       <c r="Q125" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="R125" t="s">
         <v>479</v>
@@ -9974,7 +9974,7 @@
         <v>336</v>
       </c>
       <c r="H126" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I126" t="s">
         <v>428</v>
@@ -9989,7 +9989,7 @@
         <v>474</v>
       </c>
       <c r="M126" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N126" t="s">
         <v>475</v>
@@ -10039,16 +10039,16 @@
         <v>317</v>
       </c>
       <c r="H127" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I127" t="s">
         <v>429</v>
       </c>
       <c r="J127" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K127" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L127" t="s">
         <v>475</v>
@@ -10104,13 +10104,13 @@
         <v>318</v>
       </c>
       <c r="H128" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="I128" t="s">
         <v>430</v>
       </c>
       <c r="J128" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K128" t="s">
         <v>318</v>
@@ -10125,7 +10125,7 @@
         <v>478</v>
       </c>
       <c r="O128" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="P128" t="s">
         <v>475</v>
@@ -10166,19 +10166,19 @@
         <v>299</v>
       </c>
       <c r="G129" t="s">
-        <v>341</v>
+        <v>268</v>
       </c>
       <c r="H129" t="s">
-        <v>244</v>
+        <v>320</v>
       </c>
       <c r="I129" t="s">
         <v>431</v>
       </c>
       <c r="J129" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K129" t="s">
-        <v>341</v>
+        <v>268</v>
       </c>
       <c r="L129" t="s">
         <v>479</v>
@@ -10190,7 +10190,7 @@
         <v>474</v>
       </c>
       <c r="O129" t="s">
-        <v>244</v>
+        <v>320</v>
       </c>
       <c r="P129" t="s">
         <v>475</v>
@@ -10299,7 +10299,7 @@
         <v>266</v>
       </c>
       <c r="H131" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="I131" t="s">
         <v>432</v>
@@ -10314,7 +10314,7 @@
         <v>474</v>
       </c>
       <c r="M131" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="N131" t="s">
         <v>475</v>
@@ -10426,10 +10426,10 @@
         <v>301</v>
       </c>
       <c r="G133" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="H133" t="s">
-        <v>300</v>
+        <v>237</v>
       </c>
       <c r="I133" t="s">
         <v>433</v>
@@ -10438,7 +10438,7 @@
         <v>343</v>
       </c>
       <c r="K133" t="s">
-        <v>300</v>
+        <v>237</v>
       </c>
       <c r="L133" t="s">
         <v>475</v>
@@ -10450,7 +10450,7 @@
         <v>478</v>
       </c>
       <c r="O133" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="P133" t="s">
         <v>479</v>
@@ -10494,13 +10494,13 @@
         <v>238</v>
       </c>
       <c r="H134" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
       <c r="I134" t="s">
         <v>434</v>
       </c>
       <c r="J134" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K134" t="s">
         <v>302</v>
@@ -10509,7 +10509,7 @@
         <v>478</v>
       </c>
       <c r="M134" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
       <c r="N134" t="s">
         <v>475</v>
@@ -10556,10 +10556,10 @@
         <v>303</v>
       </c>
       <c r="G135" t="s">
-        <v>255</v>
+        <v>322</v>
       </c>
       <c r="H135" t="s">
-        <v>293</v>
+        <v>232</v>
       </c>
       <c r="I135" t="s">
         <v>435</v>
@@ -10568,7 +10568,7 @@
         <v>344</v>
       </c>
       <c r="K135" t="s">
-        <v>293</v>
+        <v>232</v>
       </c>
       <c r="L135" t="s">
         <v>475</v>
@@ -10580,7 +10580,7 @@
         <v>474</v>
       </c>
       <c r="O135" t="s">
-        <v>255</v>
+        <v>322</v>
       </c>
       <c r="P135" t="s">
         <v>479</v>
@@ -10686,19 +10686,19 @@
         <v>304</v>
       </c>
       <c r="G137" t="s">
-        <v>232</v>
+        <v>323</v>
       </c>
       <c r="H137" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="I137" t="s">
         <v>436</v>
       </c>
       <c r="J137" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K137" t="s">
-        <v>232</v>
+        <v>323</v>
       </c>
       <c r="L137" t="s">
         <v>479</v>
@@ -10716,7 +10716,7 @@
         <v>478</v>
       </c>
       <c r="Q137" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="R137" t="s">
         <v>475</v>
@@ -10754,7 +10754,7 @@
         <v>247</v>
       </c>
       <c r="H138" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="I138" t="s">
         <v>437</v>
@@ -10781,7 +10781,7 @@
         <v>480</v>
       </c>
       <c r="Q138" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="R138" t="s">
         <v>475</v>
@@ -10819,13 +10819,13 @@
         <v>240</v>
       </c>
       <c r="H139" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="I139" t="s">
         <v>438</v>
       </c>
       <c r="J139" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K139" t="s">
         <v>240</v>
@@ -10846,7 +10846,7 @@
         <v>478</v>
       </c>
       <c r="Q139" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="R139" t="s">
         <v>475</v>
@@ -11011,19 +11011,19 @@
         <v>307</v>
       </c>
       <c r="G142" t="s">
-        <v>291</v>
+        <v>222</v>
       </c>
       <c r="H142" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="I142" t="s">
         <v>439</v>
       </c>
       <c r="J142" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K142" t="s">
-        <v>291</v>
+        <v>222</v>
       </c>
       <c r="L142" t="s">
         <v>479</v>
@@ -11035,7 +11035,7 @@
         <v>478</v>
       </c>
       <c r="O142" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="P142" t="s">
         <v>475</v>
@@ -11076,19 +11076,19 @@
         <v>308</v>
       </c>
       <c r="G143" t="s">
-        <v>216</v>
+        <v>333</v>
       </c>
       <c r="H143" t="s">
-        <v>338</v>
+        <v>219</v>
       </c>
       <c r="I143" t="s">
         <v>440</v>
       </c>
       <c r="J143" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K143" t="s">
-        <v>216</v>
+        <v>333</v>
       </c>
       <c r="L143" t="s">
         <v>479</v>
@@ -11106,7 +11106,7 @@
         <v>474</v>
       </c>
       <c r="Q143" t="s">
-        <v>338</v>
+        <v>219</v>
       </c>
       <c r="R143" t="s">
         <v>475</v>
@@ -11141,19 +11141,19 @@
         <v>309</v>
       </c>
       <c r="G144" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="H144" t="s">
-        <v>320</v>
+        <v>263</v>
       </c>
       <c r="I144" t="s">
         <v>441</v>
       </c>
       <c r="J144" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K144" t="s">
-        <v>320</v>
+        <v>263</v>
       </c>
       <c r="L144" t="s">
         <v>475</v>
@@ -11165,7 +11165,7 @@
         <v>478</v>
       </c>
       <c r="O144" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="P144" t="s">
         <v>479</v>
@@ -11206,16 +11206,16 @@
         <v>310</v>
       </c>
       <c r="G145" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="H145" t="s">
-        <v>314</v>
+        <v>227</v>
       </c>
       <c r="I145" t="s">
         <v>442</v>
       </c>
       <c r="J145" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K145" t="s">
         <v>310</v>
@@ -11230,13 +11230,13 @@
         <v>474</v>
       </c>
       <c r="O145" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="P145" t="s">
         <v>479</v>
       </c>
       <c r="Q145" t="s">
-        <v>314</v>
+        <v>227</v>
       </c>
       <c r="R145" t="s">
         <v>475</v>
@@ -11271,16 +11271,16 @@
         <v>311</v>
       </c>
       <c r="G146" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H146" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="I146" t="s">
         <v>443</v>
       </c>
       <c r="J146" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K146" t="s">
         <v>443</v>
@@ -11289,13 +11289,13 @@
         <v>474</v>
       </c>
       <c r="M146" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N146" t="s">
         <v>479</v>
       </c>
       <c r="O146" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="P146" t="s">
         <v>475</v>
@@ -11469,13 +11469,13 @@
         <v>337</v>
       </c>
       <c r="H149" t="s">
-        <v>283</v>
+        <v>221</v>
       </c>
       <c r="I149" t="s">
         <v>444</v>
       </c>
       <c r="J149" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K149" t="s">
         <v>337</v>
@@ -11496,7 +11496,7 @@
         <v>480</v>
       </c>
       <c r="Q149" t="s">
-        <v>283</v>
+        <v>221</v>
       </c>
       <c r="R149" t="s">
         <v>475</v>
@@ -11531,19 +11531,19 @@
         <v>313</v>
       </c>
       <c r="G150" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="H150" t="s">
-        <v>321</v>
+        <v>266</v>
       </c>
       <c r="I150" t="s">
         <v>445</v>
       </c>
       <c r="J150" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K150" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="L150" t="s">
         <v>479</v>
@@ -11561,7 +11561,7 @@
         <v>478</v>
       </c>
       <c r="Q150" t="s">
-        <v>321</v>
+        <v>266</v>
       </c>
       <c r="R150" t="s">
         <v>475</v>
@@ -11599,16 +11599,16 @@
         <v>287</v>
       </c>
       <c r="H151" t="s">
-        <v>309</v>
+        <v>214</v>
       </c>
       <c r="I151" t="s">
         <v>446</v>
       </c>
       <c r="J151" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K151" t="s">
-        <v>309</v>
+        <v>214</v>
       </c>
       <c r="L151" t="s">
         <v>475</v>
@@ -11664,7 +11664,7 @@
         <v>306</v>
       </c>
       <c r="H152" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="I152" t="s">
         <v>447</v>
@@ -11679,7 +11679,7 @@
         <v>479</v>
       </c>
       <c r="M152" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="N152" t="s">
         <v>475</v>
@@ -11856,10 +11856,10 @@
         <v>316</v>
       </c>
       <c r="G155" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H155" t="s">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="I155" t="s">
         <v>448</v>
@@ -11868,7 +11868,7 @@
         <v>345</v>
       </c>
       <c r="K155" t="s">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="L155" t="s">
         <v>475</v>
@@ -11886,7 +11886,7 @@
         <v>474</v>
       </c>
       <c r="Q155" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="R155" t="s">
         <v>479</v>
@@ -11924,16 +11924,16 @@
         <v>285</v>
       </c>
       <c r="H156" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="I156" t="s">
         <v>449</v>
       </c>
       <c r="J156" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K156" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="L156" t="s">
         <v>475</v>
@@ -11989,13 +11989,13 @@
         <v>340</v>
       </c>
       <c r="H157" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="I157" t="s">
         <v>450</v>
       </c>
       <c r="J157" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K157" t="s">
         <v>340</v>
@@ -12016,7 +12016,7 @@
         <v>474</v>
       </c>
       <c r="Q157" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="R157" t="s">
         <v>475</v>
@@ -12054,7 +12054,7 @@
         <v>234</v>
       </c>
       <c r="H158" t="s">
-        <v>333</v>
+        <v>216</v>
       </c>
       <c r="I158" t="s">
         <v>451</v>
@@ -12075,7 +12075,7 @@
         <v>474</v>
       </c>
       <c r="O158" t="s">
-        <v>333</v>
+        <v>216</v>
       </c>
       <c r="P158" t="s">
         <v>475</v>
@@ -12184,7 +12184,7 @@
         <v>312</v>
       </c>
       <c r="H160" t="s">
-        <v>216</v>
+        <v>269</v>
       </c>
       <c r="I160" t="s">
         <v>452</v>
@@ -12211,7 +12211,7 @@
         <v>474</v>
       </c>
       <c r="Q160" t="s">
-        <v>216</v>
+        <v>269</v>
       </c>
       <c r="R160" t="s">
         <v>475</v>
@@ -12246,25 +12246,25 @@
         <v>321</v>
       </c>
       <c r="G161" t="s">
-        <v>325</v>
+        <v>241</v>
       </c>
       <c r="H161" t="s">
-        <v>232</v>
+        <v>318</v>
       </c>
       <c r="I161" t="s">
         <v>453</v>
       </c>
       <c r="J161" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K161" t="s">
-        <v>325</v>
+        <v>241</v>
       </c>
       <c r="L161" t="s">
         <v>479</v>
       </c>
       <c r="M161" t="s">
-        <v>232</v>
+        <v>318</v>
       </c>
       <c r="N161" t="s">
         <v>475</v>
@@ -12376,19 +12376,19 @@
         <v>322</v>
       </c>
       <c r="G163" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="H163" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="I163" t="s">
         <v>454</v>
       </c>
       <c r="J163" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K163" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="L163" t="s">
         <v>475</v>
@@ -12406,7 +12406,7 @@
         <v>478</v>
       </c>
       <c r="Q163" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="R163" t="s">
         <v>479</v>
@@ -12441,19 +12441,19 @@
         <v>323</v>
       </c>
       <c r="G164" t="s">
-        <v>221</v>
+        <v>292</v>
       </c>
       <c r="H164" t="s">
-        <v>218</v>
+        <v>325</v>
       </c>
       <c r="I164" t="s">
         <v>455</v>
       </c>
       <c r="J164" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K164" t="s">
-        <v>221</v>
+        <v>292</v>
       </c>
       <c r="L164" t="s">
         <v>479</v>
@@ -12471,7 +12471,7 @@
         <v>478</v>
       </c>
       <c r="Q164" t="s">
-        <v>218</v>
+        <v>325</v>
       </c>
       <c r="R164" t="s">
         <v>475</v>
@@ -12571,19 +12571,19 @@
         <v>324</v>
       </c>
       <c r="G166" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="H166" t="s">
-        <v>237</v>
+        <v>287</v>
       </c>
       <c r="I166" t="s">
         <v>456</v>
       </c>
       <c r="J166" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K166" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="L166" t="s">
         <v>479</v>
@@ -12601,7 +12601,7 @@
         <v>474</v>
       </c>
       <c r="Q166" t="s">
-        <v>237</v>
+        <v>287</v>
       </c>
       <c r="R166" t="s">
         <v>475</v>
@@ -12636,16 +12636,16 @@
         <v>325</v>
       </c>
       <c r="G167" t="s">
-        <v>220</v>
+        <v>339</v>
       </c>
       <c r="H167" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="I167" t="s">
         <v>457</v>
       </c>
       <c r="J167" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K167" t="s">
         <v>457</v>
@@ -12654,13 +12654,13 @@
         <v>474</v>
       </c>
       <c r="M167" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="N167" t="s">
         <v>475</v>
       </c>
       <c r="O167" t="s">
-        <v>220</v>
+        <v>339</v>
       </c>
       <c r="P167" t="s">
         <v>479</v>
@@ -12701,10 +12701,10 @@
         <v>326</v>
       </c>
       <c r="G168" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="H168" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="I168" t="s">
         <v>458</v>
@@ -12719,13 +12719,13 @@
         <v>474</v>
       </c>
       <c r="M168" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="N168" t="s">
         <v>479</v>
       </c>
       <c r="O168" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="P168" t="s">
         <v>475</v>
@@ -12769,7 +12769,7 @@
         <v>258</v>
       </c>
       <c r="H169" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="I169" t="s">
         <v>459</v>
@@ -12790,7 +12790,7 @@
         <v>474</v>
       </c>
       <c r="O169" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="P169" t="s">
         <v>475</v>
@@ -13026,19 +13026,19 @@
         <v>328</v>
       </c>
       <c r="G173" t="s">
-        <v>251</v>
+        <v>324</v>
       </c>
       <c r="H173" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="I173" t="s">
         <v>460</v>
       </c>
       <c r="J173" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K173" t="s">
-        <v>251</v>
+        <v>324</v>
       </c>
       <c r="L173" t="s">
         <v>479</v>
@@ -13050,7 +13050,7 @@
         <v>478</v>
       </c>
       <c r="O173" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="P173" t="s">
         <v>475</v>
@@ -13094,13 +13094,13 @@
         <v>294</v>
       </c>
       <c r="H174" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="I174" t="s">
         <v>461</v>
       </c>
       <c r="J174" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K174" t="s">
         <v>329</v>
@@ -13121,7 +13121,7 @@
         <v>479</v>
       </c>
       <c r="Q174" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="R174" t="s">
         <v>475</v>
@@ -13156,16 +13156,16 @@
         <v>330</v>
       </c>
       <c r="G175" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="H175" t="s">
-        <v>290</v>
+        <v>245</v>
       </c>
       <c r="I175" t="s">
         <v>462</v>
       </c>
       <c r="J175" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K175" t="s">
         <v>330</v>
@@ -13180,13 +13180,13 @@
         <v>474</v>
       </c>
       <c r="O175" t="s">
-        <v>290</v>
+        <v>245</v>
       </c>
       <c r="P175" t="s">
         <v>475</v>
       </c>
       <c r="Q175" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="R175" t="s">
         <v>479</v>
@@ -13221,10 +13221,10 @@
         <v>331</v>
       </c>
       <c r="G176" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="H176" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="I176" t="s">
         <v>463</v>
@@ -13245,13 +13245,13 @@
         <v>478</v>
       </c>
       <c r="O176" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="P176" t="s">
         <v>479</v>
       </c>
       <c r="Q176" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="R176" t="s">
         <v>475</v>
@@ -13289,13 +13289,13 @@
         <v>263</v>
       </c>
       <c r="H177" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="I177" t="s">
         <v>464</v>
       </c>
       <c r="J177" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K177" t="s">
         <v>464</v>
@@ -13316,7 +13316,7 @@
         <v>479</v>
       </c>
       <c r="Q177" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="R177" t="s">
         <v>475</v>
@@ -13416,16 +13416,16 @@
         <v>333</v>
       </c>
       <c r="G179" t="s">
-        <v>229</v>
+        <v>313</v>
       </c>
       <c r="H179" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="I179" t="s">
         <v>465</v>
       </c>
       <c r="J179" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K179" t="s">
         <v>333</v>
@@ -13434,7 +13434,7 @@
         <v>478</v>
       </c>
       <c r="M179" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="N179" t="s">
         <v>475</v>
@@ -13446,7 +13446,7 @@
         <v>474</v>
       </c>
       <c r="Q179" t="s">
-        <v>229</v>
+        <v>313</v>
       </c>
       <c r="R179" t="s">
         <v>479</v>
@@ -13611,10 +13611,10 @@
         <v>334</v>
       </c>
       <c r="G182" t="s">
-        <v>339</v>
+        <v>253</v>
       </c>
       <c r="H182" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I182" t="s">
         <v>466</v>
@@ -13635,13 +13635,13 @@
         <v>478</v>
       </c>
       <c r="O182" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="P182" t="s">
         <v>475</v>
       </c>
       <c r="Q182" t="s">
-        <v>339</v>
+        <v>253</v>
       </c>
       <c r="R182" t="s">
         <v>479</v>
@@ -13744,7 +13744,7 @@
         <v>284</v>
       </c>
       <c r="H184" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="I184" t="s">
         <v>467</v>
@@ -13765,7 +13765,7 @@
         <v>474</v>
       </c>
       <c r="O184" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="P184" t="s">
         <v>475</v>
@@ -13939,13 +13939,13 @@
         <v>298</v>
       </c>
       <c r="H187" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="I187" t="s">
         <v>468</v>
       </c>
       <c r="J187" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K187" t="s">
         <v>468</v>
@@ -13960,7 +13960,7 @@
         <v>480</v>
       </c>
       <c r="O187" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="P187" t="s">
         <v>475</v>
@@ -14069,7 +14069,7 @@
         <v>214</v>
       </c>
       <c r="H189" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="I189" t="s">
         <v>469</v>
@@ -14096,7 +14096,7 @@
         <v>474</v>
       </c>
       <c r="Q189" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="R189" t="s">
         <v>475</v>
@@ -14134,13 +14134,13 @@
         <v>297</v>
       </c>
       <c r="H190" t="s">
-        <v>258</v>
+        <v>334</v>
       </c>
       <c r="I190" t="s">
         <v>470</v>
       </c>
       <c r="J190" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K190" t="s">
         <v>338</v>
@@ -14161,7 +14161,7 @@
         <v>474</v>
       </c>
       <c r="Q190" t="s">
-        <v>258</v>
+        <v>334</v>
       </c>
       <c r="R190" t="s">
         <v>475</v>
@@ -14196,10 +14196,10 @@
         <v>339</v>
       </c>
       <c r="G191" t="s">
-        <v>224</v>
+        <v>330</v>
       </c>
       <c r="H191" t="s">
-        <v>319</v>
+        <v>262</v>
       </c>
       <c r="I191" t="s">
         <v>471</v>
@@ -14214,13 +14214,13 @@
         <v>474</v>
       </c>
       <c r="M191" t="s">
-        <v>224</v>
+        <v>330</v>
       </c>
       <c r="N191" t="s">
         <v>479</v>
       </c>
       <c r="O191" t="s">
-        <v>319</v>
+        <v>262</v>
       </c>
       <c r="P191" t="s">
         <v>475</v>
@@ -14264,16 +14264,16 @@
         <v>277</v>
       </c>
       <c r="H192" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="I192" t="s">
         <v>472</v>
       </c>
       <c r="J192" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K192" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="L192" t="s">
         <v>475</v>
@@ -14326,19 +14326,19 @@
         <v>341</v>
       </c>
       <c r="G193" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="H193" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="I193" t="s">
         <v>473</v>
       </c>
       <c r="J193" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K193" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="L193" t="s">
         <v>475</v>
@@ -14356,7 +14356,7 @@
         <v>478</v>
       </c>
       <c r="Q193" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="R193" t="s">
         <v>479</v>

--- a/sequences/01_retrieval_3.xlsx
+++ b/sequences/01_retrieval_3.xlsx
@@ -1054,390 +1054,390 @@
     <t>face</t>
   </si>
   <si>
+    <t>face/face139.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower219.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog237.jpg</t>
+  </si>
+  <si>
+    <t>face/face196.jpg</t>
+  </si>
+  <si>
+    <t>house/house122.jpg</t>
+  </si>
+  <si>
+    <t>face/face193.jpg</t>
+  </si>
+  <si>
+    <t>house/house135.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog106.jpg</t>
+  </si>
+  <si>
+    <t>house/house233.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog153.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog265.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower252.jpg</t>
+  </si>
+  <si>
+    <t>house/house153.jpg</t>
+  </si>
+  <si>
+    <t>face/face157.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower255.jpg</t>
+  </si>
+  <si>
+    <t>face/face175.jpg</t>
+  </si>
+  <si>
+    <t>house/house216.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog179.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower220.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog182.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower139.jpg</t>
+  </si>
+  <si>
+    <t>face/face124.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower263.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog122.jpg</t>
+  </si>
+  <si>
+    <t>house/house169.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog215.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower167.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower172.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog259.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower128.jpg</t>
+  </si>
+  <si>
+    <t>house/house250.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower183.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog214.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower240.jpg</t>
+  </si>
+  <si>
+    <t>house/house142.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower114.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog130.jpg</t>
+  </si>
+  <si>
+    <t>house/house199.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog158.jpg</t>
+  </si>
+  <si>
+    <t>face/face156.jpg</t>
+  </si>
+  <si>
+    <t>face/face172.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog206.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower135.jpg</t>
+  </si>
+  <si>
     <t>face/face247.jpg</t>
   </si>
   <si>
+    <t>flower/flower192.jpg</t>
+  </si>
+  <si>
+    <t>face/face190.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower190.jpg</t>
+  </si>
+  <si>
+    <t>house/house252.jpg</t>
+  </si>
+  <si>
+    <t>face/face205.jpg</t>
+  </si>
+  <si>
+    <t>house/house194.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower227.jpg</t>
+  </si>
+  <si>
+    <t>house/house232.jpg</t>
+  </si>
+  <si>
+    <t>house/house248.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog126.jpg</t>
+  </si>
+  <si>
+    <t>house/house128.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower134.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower180.jpg</t>
+  </si>
+  <si>
+    <t>face/face200.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower209.jpg</t>
+  </si>
+  <si>
+    <t>face/face136.jpg</t>
+  </si>
+  <si>
+    <t>face/face098.jpg</t>
+  </si>
+  <si>
     <t>house/house154.jpg</t>
   </si>
   <si>
-    <t>house/house250.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower220.jpg</t>
-  </si>
-  <si>
-    <t>face/face157.jpg</t>
+    <t>face/face127.jpg</t>
+  </si>
+  <si>
+    <t>house/house123.jpg</t>
+  </si>
+  <si>
+    <t>house/house259.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog175.jpg</t>
+  </si>
+  <si>
+    <t>house/house255.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower159.jpg</t>
+  </si>
+  <si>
+    <t>face/face148.jpg</t>
+  </si>
+  <si>
+    <t>face/face151.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower170.jpg</t>
+  </si>
+  <si>
+    <t>face/face154.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog249.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower241.jpg</t>
+  </si>
+  <si>
+    <t>house/house223.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower103.jpg</t>
+  </si>
+  <si>
+    <t>house/house110.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower178.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower112.jpg</t>
+  </si>
+  <si>
+    <t>face/face219.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog147.jpg</t>
+  </si>
+  <si>
+    <t>house/house188.jpg</t>
+  </si>
+  <si>
+    <t>house/house201.jpg</t>
+  </si>
+  <si>
+    <t>face/face174.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog125.jpg</t>
+  </si>
+  <si>
+    <t>house/house177.jpg</t>
+  </si>
+  <si>
+    <t>house/house189.jpg</t>
+  </si>
+  <si>
+    <t>face/face112.jpg</t>
+  </si>
+  <si>
+    <t>face/face201.jpg</t>
+  </si>
+  <si>
+    <t>face/face147.jpg</t>
+  </si>
+  <si>
+    <t>house/house121.jpg</t>
+  </si>
+  <si>
+    <t>face/face188.jpg</t>
+  </si>
+  <si>
+    <t>house/house108.jpg</t>
+  </si>
+  <si>
+    <t>face/face144.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog113.jpg</t>
+  </si>
+  <si>
+    <t>face/face182.jpg</t>
+  </si>
+  <si>
+    <t>house/house148.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog163.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog211.jpg</t>
+  </si>
+  <si>
+    <t>house/house114.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower211.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog224.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog127.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower203.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog096.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog233.jpg</t>
+  </si>
+  <si>
+    <t>face/face123.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog109.jpg</t>
+  </si>
+  <si>
+    <t>face/face143.jpg</t>
+  </si>
+  <si>
+    <t>face/face142.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog184.jpg</t>
+  </si>
+  <si>
+    <t>house/house149.jpg</t>
   </si>
   <si>
     <t>flower/flower143.jpg</t>
   </si>
   <si>
-    <t>flower/flower134.jpg</t>
+    <t>dog/dog196.jpg</t>
+  </si>
+  <si>
+    <t>house/house119.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog187.jpg</t>
+  </si>
+  <si>
+    <t>house/house180.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog264.jpg</t>
+  </si>
+  <si>
+    <t>house/house254.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog234.jpg</t>
+  </si>
+  <si>
+    <t>face/face217.jpg</t>
+  </si>
+  <si>
+    <t>face/face146.jpg</t>
   </si>
   <si>
     <t>flower/flower212.jpg</t>
   </si>
   <si>
-    <t>house/house233.jpg</t>
+    <t>face/face206.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower187.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower163.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog225.jpg</t>
   </si>
   <si>
     <t>flower/flower201.jpg</t>
   </si>
   <si>
-    <t>house/house216.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower240.jpg</t>
-  </si>
-  <si>
-    <t>face/face123.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog158.jpg</t>
-  </si>
-  <si>
-    <t>face/face196.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog127.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog233.jpg</t>
-  </si>
-  <si>
-    <t>house/house180.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog182.jpg</t>
-  </si>
-  <si>
-    <t>house/house114.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower159.jpg</t>
-  </si>
-  <si>
-    <t>house/house252.jpg</t>
-  </si>
-  <si>
-    <t>house/house169.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog147.jpg</t>
-  </si>
-  <si>
-    <t>house/house108.jpg</t>
-  </si>
-  <si>
-    <t>face/face151.jpg</t>
-  </si>
-  <si>
-    <t>house/house189.jpg</t>
-  </si>
-  <si>
-    <t>house/house201.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower167.jpg</t>
-  </si>
-  <si>
-    <t>face/face219.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower203.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog179.jpg</t>
-  </si>
-  <si>
-    <t>house/house188.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog224.jpg</t>
-  </si>
-  <si>
-    <t>house/house148.jpg</t>
-  </si>
-  <si>
-    <t>house/house255.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog249.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog113.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog214.jpg</t>
-  </si>
-  <si>
-    <t>face/face148.jpg</t>
-  </si>
-  <si>
-    <t>face/face136.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog109.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower135.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog187.jpg</t>
-  </si>
-  <si>
-    <t>face/face174.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog175.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower180.jpg</t>
-  </si>
-  <si>
-    <t>face/face124.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower112.jpg</t>
-  </si>
-  <si>
-    <t>house/house135.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog234.jpg</t>
-  </si>
-  <si>
-    <t>house/house119.jpg</t>
-  </si>
-  <si>
-    <t>face/face139.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog211.jpg</t>
-  </si>
-  <si>
-    <t>face/face142.jpg</t>
-  </si>
-  <si>
-    <t>face/face154.jpg</t>
-  </si>
-  <si>
-    <t>face/face217.jpg</t>
-  </si>
-  <si>
-    <t>face/face143.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower252.jpg</t>
-  </si>
-  <si>
-    <t>face/face098.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog184.jpg</t>
-  </si>
-  <si>
-    <t>house/house259.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower219.jpg</t>
-  </si>
-  <si>
-    <t>face/face175.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower183.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog130.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower128.jpg</t>
-  </si>
-  <si>
-    <t>face/face190.jpg</t>
-  </si>
-  <si>
-    <t>face/face182.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower163.jpg</t>
-  </si>
-  <si>
-    <t>house/house232.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog096.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower170.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog122.jpg</t>
-  </si>
-  <si>
-    <t>house/house177.jpg</t>
-  </si>
-  <si>
-    <t>face/face147.jpg</t>
-  </si>
-  <si>
-    <t>face/face206.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower211.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog215.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower103.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower190.jpg</t>
-  </si>
-  <si>
-    <t>house/house194.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog125.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower187.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower255.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower227.jpg</t>
-  </si>
-  <si>
-    <t>face/face144.jpg</t>
-  </si>
-  <si>
-    <t>face/face127.jpg</t>
-  </si>
-  <si>
-    <t>house/house123.jpg</t>
-  </si>
-  <si>
-    <t>face/face193.jpg</t>
-  </si>
-  <si>
-    <t>house/house254.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower178.jpg</t>
-  </si>
-  <si>
-    <t>house/house121.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower241.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog153.jpg</t>
-  </si>
-  <si>
-    <t>face/face201.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog265.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog163.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog106.jpg</t>
-  </si>
-  <si>
-    <t>house/house153.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog126.jpg</t>
-  </si>
-  <si>
-    <t>house/house122.jpg</t>
-  </si>
-  <si>
-    <t>house/house149.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower192.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower209.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower114.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower263.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog259.jpg</t>
-  </si>
-  <si>
-    <t>face/face112.jpg</t>
-  </si>
-  <si>
-    <t>house/house128.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog237.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog196.jpg</t>
-  </si>
-  <si>
-    <t>house/house223.jpg</t>
-  </si>
-  <si>
-    <t>house/house110.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog264.jpg</t>
-  </si>
-  <si>
-    <t>house/house199.jpg</t>
-  </si>
-  <si>
-    <t>house/house248.jpg</t>
-  </si>
-  <si>
-    <t>face/face146.jpg</t>
-  </si>
-  <si>
-    <t>face/face200.jpg</t>
-  </si>
-  <si>
-    <t>face/face205.jpg</t>
-  </si>
-  <si>
-    <t>face/face172.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower139.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower172.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog206.jpg</t>
-  </si>
-  <si>
-    <t>face/face156.jpg</t>
-  </si>
-  <si>
-    <t>house/house142.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog225.jpg</t>
-  </si>
-  <si>
-    <t>face/face188.jpg</t>
-  </si>
-  <si>
     <t>same/old/uncued</t>
   </si>
   <si>
@@ -1459,10 +1459,10 @@
     <t>other/old/uncued</t>
   </si>
   <si>
+    <t>cat2/old/uncued</t>
+  </si>
+  <si>
     <t>cat2/old/cued</t>
-  </si>
-  <si>
-    <t>cat2/old/uncued</t>
   </si>
 </sst>
 </file>
@@ -1914,7 +1914,7 @@
         <v>331</v>
       </c>
       <c r="H2" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="I2" t="s">
         <v>346</v>
@@ -1929,7 +1929,7 @@
         <v>474</v>
       </c>
       <c r="M2" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="N2" t="s">
         <v>480</v>
@@ -1979,13 +1979,13 @@
         <v>339</v>
       </c>
       <c r="H3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I3" t="s">
         <v>347</v>
       </c>
       <c r="J3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K3" t="s">
         <v>214</v>
@@ -2000,7 +2000,7 @@
         <v>474</v>
       </c>
       <c r="O3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P3" t="s">
         <v>480</v>
@@ -2044,13 +2044,13 @@
         <v>296</v>
       </c>
       <c r="H4" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="I4" t="s">
         <v>348</v>
       </c>
       <c r="J4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K4" t="s">
         <v>296</v>
@@ -2071,7 +2071,7 @@
         <v>475</v>
       </c>
       <c r="Q4" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="R4" t="s">
         <v>480</v>
@@ -2109,13 +2109,13 @@
         <v>249</v>
       </c>
       <c r="H5" t="s">
-        <v>296</v>
+        <v>240</v>
       </c>
       <c r="I5" t="s">
         <v>349</v>
       </c>
       <c r="J5" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K5" t="s">
         <v>216</v>
@@ -2124,7 +2124,7 @@
         <v>475</v>
       </c>
       <c r="M5" t="s">
-        <v>296</v>
+        <v>240</v>
       </c>
       <c r="N5" t="s">
         <v>480</v>
@@ -2174,13 +2174,13 @@
         <v>270</v>
       </c>
       <c r="H6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I6" t="s">
         <v>350</v>
       </c>
       <c r="J6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K6" t="s">
         <v>270</v>
@@ -2189,7 +2189,7 @@
         <v>474</v>
       </c>
       <c r="M6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="N6" t="s">
         <v>480</v>
@@ -2295,25 +2295,25 @@
         <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>219</v>
       </c>
       <c r="G8" t="s">
-        <v>255</v>
+        <v>307</v>
       </c>
       <c r="H8" t="s">
-        <v>268</v>
+        <v>336</v>
       </c>
       <c r="I8" t="s">
         <v>351</v>
       </c>
       <c r="J8" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K8" t="s">
-        <v>255</v>
+        <v>307</v>
       </c>
       <c r="L8" t="s">
         <v>474</v>
@@ -2322,7 +2322,7 @@
         <v>219</v>
       </c>
       <c r="N8" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="O8" t="s">
         <v>351</v>
@@ -2331,7 +2331,7 @@
         <v>478</v>
       </c>
       <c r="Q8" t="s">
-        <v>268</v>
+        <v>336</v>
       </c>
       <c r="R8" t="s">
         <v>480</v>
@@ -2381,25 +2381,25 @@
         <v>222</v>
       </c>
       <c r="L9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M9" t="s">
         <v>224</v>
       </c>
       <c r="N9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O9" t="s">
         <v>213</v>
       </c>
       <c r="P9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q9" t="s">
         <v>231</v>
       </c>
       <c r="R9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S9" t="s">
         <v>345</v>
@@ -2446,25 +2446,25 @@
         <v>288</v>
       </c>
       <c r="L10" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M10" t="s">
         <v>240</v>
       </c>
       <c r="N10" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O10" t="s">
         <v>257</v>
       </c>
       <c r="P10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q10" t="s">
         <v>337</v>
       </c>
       <c r="R10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S10" t="s">
         <v>345</v>
@@ -2490,22 +2490,22 @@
         <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="s">
         <v>220</v>
       </c>
       <c r="G11" t="s">
-        <v>232</v>
+        <v>287</v>
       </c>
       <c r="H11" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="I11" t="s">
         <v>352</v>
       </c>
       <c r="J11" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K11" t="s">
         <v>352</v>
@@ -2514,7 +2514,7 @@
         <v>478</v>
       </c>
       <c r="M11" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="N11" t="s">
         <v>480</v>
@@ -2523,10 +2523,10 @@
         <v>220</v>
       </c>
       <c r="P11" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="Q11" t="s">
-        <v>232</v>
+        <v>287</v>
       </c>
       <c r="R11" t="s">
         <v>474</v>
@@ -2555,22 +2555,22 @@
         <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="s">
         <v>221</v>
       </c>
       <c r="G12" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="H12" t="s">
-        <v>231</v>
+        <v>323</v>
       </c>
       <c r="I12" t="s">
         <v>353</v>
       </c>
       <c r="J12" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K12" t="s">
         <v>353</v>
@@ -2579,13 +2579,13 @@
         <v>478</v>
       </c>
       <c r="M12" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="N12" t="s">
         <v>474</v>
       </c>
       <c r="O12" t="s">
-        <v>231</v>
+        <v>323</v>
       </c>
       <c r="P12" t="s">
         <v>480</v>
@@ -2594,7 +2594,7 @@
         <v>221</v>
       </c>
       <c r="R12" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="S12" t="s">
         <v>218</v>
@@ -2641,13 +2641,13 @@
         <v>279</v>
       </c>
       <c r="L13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M13" t="s">
         <v>222</v>
       </c>
       <c r="N13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O13" t="s">
         <v>340</v>
@@ -2718,13 +2718,13 @@
         <v>313</v>
       </c>
       <c r="P14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q14" t="s">
         <v>338</v>
       </c>
       <c r="R14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S14" t="s">
         <v>342</v>
@@ -2771,25 +2771,25 @@
         <v>282</v>
       </c>
       <c r="L15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M15" t="s">
         <v>243</v>
       </c>
       <c r="N15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O15" t="s">
         <v>262</v>
       </c>
       <c r="P15" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q15" t="s">
         <v>284</v>
       </c>
       <c r="R15" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S15" t="s">
         <v>344</v>
@@ -2842,19 +2842,19 @@
         <v>334</v>
       </c>
       <c r="N16" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O16" t="s">
         <v>300</v>
       </c>
       <c r="P16" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q16" t="s">
         <v>237</v>
       </c>
       <c r="R16" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S16" t="s">
         <v>344</v>
@@ -2880,16 +2880,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="s">
         <v>222</v>
       </c>
       <c r="G17" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="H17" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="I17" t="s">
         <v>354</v>
@@ -2901,10 +2901,10 @@
         <v>222</v>
       </c>
       <c r="L17" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="M17" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="N17" t="s">
         <v>480</v>
@@ -2916,7 +2916,7 @@
         <v>478</v>
       </c>
       <c r="Q17" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="R17" t="s">
         <v>474</v>
@@ -2945,37 +2945,37 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
         <v>223</v>
       </c>
       <c r="G18" t="s">
-        <v>220</v>
+        <v>272</v>
       </c>
       <c r="H18" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="I18" t="s">
         <v>355</v>
       </c>
       <c r="J18" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K18" t="s">
         <v>223</v>
       </c>
       <c r="L18" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="M18" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="N18" t="s">
         <v>480</v>
       </c>
       <c r="O18" t="s">
-        <v>220</v>
+        <v>272</v>
       </c>
       <c r="P18" t="s">
         <v>474</v>
@@ -3010,22 +3010,22 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
         <v>224</v>
       </c>
       <c r="G19" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="H19" t="s">
-        <v>324</v>
+        <v>217</v>
       </c>
       <c r="I19" t="s">
         <v>356</v>
       </c>
       <c r="J19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K19" t="s">
         <v>356</v>
@@ -3037,16 +3037,16 @@
         <v>224</v>
       </c>
       <c r="N19" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="O19" t="s">
-        <v>324</v>
+        <v>217</v>
       </c>
       <c r="P19" t="s">
         <v>480</v>
       </c>
       <c r="Q19" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="R19" t="s">
         <v>474</v>
@@ -3096,13 +3096,13 @@
         <v>252</v>
       </c>
       <c r="L20" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M20" t="s">
         <v>319</v>
       </c>
       <c r="N20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O20" t="s">
         <v>288</v>
@@ -3140,16 +3140,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>225</v>
       </c>
       <c r="G21" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="H21" t="s">
-        <v>257</v>
+        <v>327</v>
       </c>
       <c r="I21" t="s">
         <v>357</v>
@@ -3158,7 +3158,7 @@
         <v>342</v>
       </c>
       <c r="K21" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="L21" t="s">
         <v>474</v>
@@ -3170,7 +3170,7 @@
         <v>478</v>
       </c>
       <c r="O21" t="s">
-        <v>257</v>
+        <v>327</v>
       </c>
       <c r="P21" t="s">
         <v>480</v>
@@ -3179,7 +3179,7 @@
         <v>225</v>
       </c>
       <c r="R21" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="S21" t="s">
         <v>218</v>
@@ -3226,25 +3226,25 @@
         <v>219</v>
       </c>
       <c r="L22" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M22" t="s">
         <v>340</v>
       </c>
       <c r="N22" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O22" t="s">
         <v>312</v>
       </c>
       <c r="P22" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q22" t="s">
         <v>331</v>
       </c>
       <c r="R22" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S22" t="s">
         <v>344</v>
@@ -3279,13 +3279,13 @@
         <v>303</v>
       </c>
       <c r="H23" t="s">
-        <v>233</v>
+        <v>298</v>
       </c>
       <c r="I23" t="s">
         <v>358</v>
       </c>
       <c r="J23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K23" t="s">
         <v>226</v>
@@ -3300,7 +3300,7 @@
         <v>478</v>
       </c>
       <c r="O23" t="s">
-        <v>233</v>
+        <v>298</v>
       </c>
       <c r="P23" t="s">
         <v>480</v>
@@ -3344,13 +3344,13 @@
         <v>327</v>
       </c>
       <c r="H24" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="I24" t="s">
         <v>359</v>
       </c>
       <c r="J24" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K24" t="s">
         <v>359</v>
@@ -3359,7 +3359,7 @@
         <v>478</v>
       </c>
       <c r="M24" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="N24" t="s">
         <v>480</v>
@@ -3400,25 +3400,25 @@
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
         <v>228</v>
       </c>
       <c r="G25" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="H25" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="I25" t="s">
         <v>360</v>
       </c>
       <c r="J25" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K25" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="L25" t="s">
         <v>480</v>
@@ -3427,7 +3427,7 @@
         <v>228</v>
       </c>
       <c r="N25" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="O25" t="s">
         <v>360</v>
@@ -3436,7 +3436,7 @@
         <v>478</v>
       </c>
       <c r="Q25" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="R25" t="s">
         <v>474</v>
@@ -3465,25 +3465,25 @@
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="s">
         <v>229</v>
       </c>
       <c r="G26" t="s">
-        <v>252</v>
+        <v>319</v>
       </c>
       <c r="H26" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="I26" t="s">
         <v>361</v>
       </c>
       <c r="J26" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K26" t="s">
-        <v>252</v>
+        <v>319</v>
       </c>
       <c r="L26" t="s">
         <v>474</v>
@@ -3492,10 +3492,10 @@
         <v>229</v>
       </c>
       <c r="N26" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="O26" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="P26" t="s">
         <v>480</v>
@@ -3551,25 +3551,25 @@
         <v>273</v>
       </c>
       <c r="L27" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M27" t="s">
         <v>309</v>
       </c>
       <c r="N27" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O27" t="s">
         <v>276</v>
       </c>
       <c r="P27" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q27" t="s">
         <v>326</v>
       </c>
       <c r="R27" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S27" t="s">
         <v>344</v>
@@ -3604,16 +3604,16 @@
         <v>302</v>
       </c>
       <c r="H28" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="I28" t="s">
         <v>362</v>
       </c>
       <c r="J28" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K28" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="L28" t="s">
         <v>480</v>
@@ -3669,13 +3669,13 @@
         <v>238</v>
       </c>
       <c r="H29" t="s">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="I29" t="s">
         <v>363</v>
       </c>
       <c r="J29" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K29" t="s">
         <v>363</v>
@@ -3696,7 +3696,7 @@
         <v>474</v>
       </c>
       <c r="Q29" t="s">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="R29" t="s">
         <v>480</v>
@@ -3796,25 +3796,25 @@
         <v>232</v>
       </c>
       <c r="G31" t="s">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c r="H31" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="I31" t="s">
         <v>364</v>
       </c>
       <c r="J31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K31" t="s">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c r="L31" t="s">
         <v>474</v>
       </c>
       <c r="M31" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="N31" t="s">
         <v>480</v>
@@ -3855,25 +3855,25 @@
         <v>0</v>
       </c>
       <c r="E32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="s">
         <v>233</v>
       </c>
       <c r="G32" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H32" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
       <c r="I32" t="s">
         <v>365</v>
       </c>
       <c r="J32" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K32" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
       <c r="L32" t="s">
         <v>480</v>
@@ -3882,10 +3882,10 @@
         <v>233</v>
       </c>
       <c r="N32" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="O32" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="P32" t="s">
         <v>474</v>
@@ -3920,16 +3920,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="s">
         <v>234</v>
       </c>
       <c r="G33" t="s">
-        <v>305</v>
+        <v>243</v>
       </c>
       <c r="H33" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
       <c r="I33" t="s">
         <v>366</v>
@@ -3938,7 +3938,7 @@
         <v>342</v>
       </c>
       <c r="K33" t="s">
-        <v>305</v>
+        <v>243</v>
       </c>
       <c r="L33" t="s">
         <v>474</v>
@@ -3953,10 +3953,10 @@
         <v>234</v>
       </c>
       <c r="P33" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="Q33" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
       <c r="R33" t="s">
         <v>480</v>
@@ -3994,13 +3994,13 @@
         <v>263</v>
       </c>
       <c r="H34" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="I34" t="s">
         <v>367</v>
       </c>
       <c r="J34" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K34" t="s">
         <v>263</v>
@@ -4021,7 +4021,7 @@
         <v>478</v>
       </c>
       <c r="Q34" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="R34" t="s">
         <v>480</v>
@@ -4059,13 +4059,13 @@
         <v>235</v>
       </c>
       <c r="H35" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="I35" t="s">
         <v>368</v>
       </c>
       <c r="J35" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K35" t="s">
         <v>236</v>
@@ -4086,7 +4086,7 @@
         <v>474</v>
       </c>
       <c r="Q35" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="R35" t="s">
         <v>480</v>
@@ -4148,13 +4148,13 @@
         <v>332</v>
       </c>
       <c r="P36" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q36" t="s">
         <v>263</v>
       </c>
       <c r="R36" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S36" t="s">
         <v>342</v>
@@ -4189,7 +4189,7 @@
         <v>312</v>
       </c>
       <c r="H37" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="I37" t="s">
         <v>369</v>
@@ -4216,7 +4216,7 @@
         <v>474</v>
       </c>
       <c r="Q37" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="R37" t="s">
         <v>480</v>
@@ -4254,7 +4254,7 @@
         <v>333</v>
       </c>
       <c r="H38" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
       <c r="I38" t="s">
         <v>370</v>
@@ -4275,7 +4275,7 @@
         <v>474</v>
       </c>
       <c r="O38" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
       <c r="P38" t="s">
         <v>480</v>
@@ -4310,25 +4310,25 @@
         <v>0</v>
       </c>
       <c r="E39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="s">
         <v>239</v>
       </c>
       <c r="G39" t="s">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="H39" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="I39" t="s">
         <v>371</v>
       </c>
       <c r="J39" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K39" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="L39" t="s">
         <v>480</v>
@@ -4340,7 +4340,7 @@
         <v>478</v>
       </c>
       <c r="O39" t="s">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="P39" t="s">
         <v>474</v>
@@ -4349,7 +4349,7 @@
         <v>239</v>
       </c>
       <c r="R39" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="S39" t="s">
         <v>218</v>
@@ -4375,22 +4375,22 @@
         <v>0</v>
       </c>
       <c r="E40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
         <v>240</v>
       </c>
       <c r="G40" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="H40" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="I40" t="s">
         <v>372</v>
       </c>
       <c r="J40" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K40" t="s">
         <v>372</v>
@@ -4399,7 +4399,7 @@
         <v>478</v>
       </c>
       <c r="M40" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="N40" t="s">
         <v>480</v>
@@ -4408,10 +4408,10 @@
         <v>240</v>
       </c>
       <c r="P40" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="Q40" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="R40" t="s">
         <v>474</v>
@@ -4440,22 +4440,22 @@
         <v>0</v>
       </c>
       <c r="E41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="s">
         <v>241</v>
       </c>
       <c r="G41" t="s">
-        <v>321</v>
+        <v>233</v>
       </c>
       <c r="H41" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="I41" t="s">
         <v>373</v>
       </c>
       <c r="J41" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K41" t="s">
         <v>373</v>
@@ -4464,7 +4464,7 @@
         <v>478</v>
       </c>
       <c r="M41" t="s">
-        <v>321</v>
+        <v>233</v>
       </c>
       <c r="N41" t="s">
         <v>474</v>
@@ -4473,10 +4473,10 @@
         <v>241</v>
       </c>
       <c r="P41" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="Q41" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="R41" t="s">
         <v>480</v>
@@ -4544,7 +4544,7 @@
         <v>341</v>
       </c>
       <c r="R42" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="S42" t="s">
         <v>343</v>
@@ -4570,22 +4570,22 @@
         <v>0</v>
       </c>
       <c r="E43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="s">
         <v>242</v>
       </c>
       <c r="G43" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
       <c r="H43" t="s">
-        <v>327</v>
+        <v>270</v>
       </c>
       <c r="I43" t="s">
         <v>374</v>
       </c>
       <c r="J43" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K43" t="s">
         <v>374</v>
@@ -4594,7 +4594,7 @@
         <v>478</v>
       </c>
       <c r="M43" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
       <c r="N43" t="s">
         <v>474</v>
@@ -4603,10 +4603,10 @@
         <v>242</v>
       </c>
       <c r="P43" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="Q43" t="s">
-        <v>327</v>
+        <v>270</v>
       </c>
       <c r="R43" t="s">
         <v>480</v>
@@ -4635,31 +4635,31 @@
         <v>0</v>
       </c>
       <c r="E44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="s">
         <v>243</v>
       </c>
       <c r="G44" t="s">
-        <v>341</v>
+        <v>297</v>
       </c>
       <c r="H44" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="I44" t="s">
         <v>375</v>
       </c>
       <c r="J44" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K44" t="s">
-        <v>341</v>
+        <v>297</v>
       </c>
       <c r="L44" t="s">
         <v>474</v>
       </c>
       <c r="M44" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="N44" t="s">
         <v>480</v>
@@ -4674,7 +4674,7 @@
         <v>243</v>
       </c>
       <c r="R44" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="S44" t="s">
         <v>218</v>
@@ -4709,16 +4709,16 @@
         <v>278</v>
       </c>
       <c r="H45" t="s">
-        <v>322</v>
+        <v>239</v>
       </c>
       <c r="I45" t="s">
         <v>376</v>
       </c>
       <c r="J45" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K45" t="s">
-        <v>322</v>
+        <v>239</v>
       </c>
       <c r="L45" t="s">
         <v>480</v>
@@ -4765,22 +4765,22 @@
         <v>0</v>
       </c>
       <c r="E46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="s">
         <v>245</v>
       </c>
       <c r="G46" t="s">
-        <v>223</v>
+        <v>304</v>
       </c>
       <c r="H46" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I46" t="s">
         <v>377</v>
       </c>
       <c r="J46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K46" t="s">
         <v>377</v>
@@ -4792,16 +4792,16 @@
         <v>245</v>
       </c>
       <c r="N46" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="O46" t="s">
-        <v>223</v>
+        <v>304</v>
       </c>
       <c r="P46" t="s">
         <v>474</v>
       </c>
       <c r="Q46" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="R46" t="s">
         <v>480</v>
@@ -4863,7 +4863,7 @@
         <v>294</v>
       </c>
       <c r="P47" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q47" t="s">
         <v>279</v>
@@ -4916,13 +4916,13 @@
         <v>247</v>
       </c>
       <c r="L48" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M48" t="s">
         <v>328</v>
       </c>
       <c r="N48" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O48" t="s">
         <v>314</v>
@@ -4934,7 +4934,7 @@
         <v>341</v>
       </c>
       <c r="R48" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="S48" t="s">
         <v>345</v>
@@ -4966,19 +4966,19 @@
         <v>246</v>
       </c>
       <c r="G49" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="H49" t="s">
-        <v>255</v>
+        <v>303</v>
       </c>
       <c r="I49" t="s">
         <v>378</v>
       </c>
       <c r="J49" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K49" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="L49" t="s">
         <v>474</v>
@@ -4990,7 +4990,7 @@
         <v>479</v>
       </c>
       <c r="O49" t="s">
-        <v>255</v>
+        <v>303</v>
       </c>
       <c r="P49" t="s">
         <v>480</v>
@@ -5025,31 +5025,31 @@
         <v>0</v>
       </c>
       <c r="E50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="s">
         <v>247</v>
       </c>
       <c r="G50" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="H50" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="I50" t="s">
         <v>379</v>
       </c>
       <c r="J50" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K50" t="s">
         <v>247</v>
       </c>
       <c r="L50" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="M50" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="N50" t="s">
         <v>480</v>
@@ -5061,7 +5061,7 @@
         <v>478</v>
       </c>
       <c r="Q50" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="R50" t="s">
         <v>474</v>
@@ -5176,7 +5176,7 @@
         <v>255</v>
       </c>
       <c r="L52" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M52" t="s">
         <v>307</v>
@@ -5188,13 +5188,13 @@
         <v>301</v>
       </c>
       <c r="P52" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q52" t="s">
         <v>300</v>
       </c>
       <c r="R52" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S52" t="s">
         <v>344</v>
@@ -5229,7 +5229,7 @@
         <v>285</v>
       </c>
       <c r="H53" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="I53" t="s">
         <v>380</v>
@@ -5238,7 +5238,7 @@
         <v>344</v>
       </c>
       <c r="K53" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="L53" t="s">
         <v>480</v>
@@ -5306,25 +5306,25 @@
         <v>324</v>
       </c>
       <c r="L54" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M54" t="s">
         <v>252</v>
       </c>
       <c r="N54" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O54" t="s">
         <v>232</v>
       </c>
       <c r="P54" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q54" t="s">
         <v>246</v>
       </c>
       <c r="R54" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="S54" t="s">
         <v>344</v>
@@ -5359,13 +5359,13 @@
         <v>283</v>
       </c>
       <c r="H55" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="I55" t="s">
         <v>381</v>
       </c>
       <c r="J55" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K55" t="s">
         <v>249</v>
@@ -5380,7 +5380,7 @@
         <v>478</v>
       </c>
       <c r="O55" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="P55" t="s">
         <v>480</v>
@@ -5424,7 +5424,7 @@
         <v>268</v>
       </c>
       <c r="H56" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="I56" t="s">
         <v>382</v>
@@ -5451,7 +5451,7 @@
         <v>478</v>
       </c>
       <c r="Q56" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="R56" t="s">
         <v>480</v>
@@ -5480,22 +5480,22 @@
         <v>0</v>
       </c>
       <c r="E57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="s">
         <v>251</v>
       </c>
       <c r="G57" t="s">
-        <v>318</v>
+        <v>264</v>
       </c>
       <c r="H57" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="I57" t="s">
         <v>383</v>
       </c>
       <c r="J57" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K57" t="s">
         <v>383</v>
@@ -5504,7 +5504,7 @@
         <v>478</v>
       </c>
       <c r="M57" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="N57" t="s">
         <v>480</v>
@@ -5513,10 +5513,10 @@
         <v>251</v>
       </c>
       <c r="P57" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="Q57" t="s">
-        <v>318</v>
+        <v>264</v>
       </c>
       <c r="R57" t="s">
         <v>474</v>
@@ -5545,16 +5545,16 @@
         <v>0</v>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
         <v>252</v>
       </c>
       <c r="G58" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="H58" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="I58" t="s">
         <v>384</v>
@@ -5566,16 +5566,16 @@
         <v>252</v>
       </c>
       <c r="L58" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="M58" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="N58" t="s">
         <v>480</v>
       </c>
       <c r="O58" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="P58" t="s">
         <v>474</v>
@@ -5619,7 +5619,7 @@
         <v>323</v>
       </c>
       <c r="H59" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="I59" t="s">
         <v>385</v>
@@ -5628,7 +5628,7 @@
         <v>345</v>
       </c>
       <c r="K59" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="L59" t="s">
         <v>480</v>
@@ -5696,25 +5696,25 @@
         <v>274</v>
       </c>
       <c r="L60" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M60" t="s">
         <v>297</v>
       </c>
       <c r="N60" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O60" t="s">
         <v>333</v>
       </c>
       <c r="P60" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q60" t="s">
         <v>329</v>
       </c>
       <c r="R60" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S60" t="s">
         <v>344</v>
@@ -5761,25 +5761,25 @@
         <v>305</v>
       </c>
       <c r="L61" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M61" t="s">
         <v>298</v>
       </c>
       <c r="N61" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O61" t="s">
         <v>285</v>
       </c>
       <c r="P61" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q61" t="s">
         <v>296</v>
       </c>
       <c r="R61" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S61" t="s">
         <v>344</v>
@@ -5814,7 +5814,7 @@
         <v>257</v>
       </c>
       <c r="H62" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="I62" t="s">
         <v>386</v>
@@ -5835,7 +5835,7 @@
         <v>474</v>
       </c>
       <c r="O62" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="P62" t="s">
         <v>480</v>
@@ -5870,16 +5870,16 @@
         <v>0</v>
       </c>
       <c r="E63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" t="s">
         <v>255</v>
       </c>
       <c r="G63" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H63" t="s">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="I63" t="s">
         <v>387</v>
@@ -5888,13 +5888,13 @@
         <v>343</v>
       </c>
       <c r="K63" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L63" t="s">
         <v>474</v>
       </c>
       <c r="M63" t="s">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="N63" t="s">
         <v>480</v>
@@ -5909,7 +5909,7 @@
         <v>255</v>
       </c>
       <c r="R63" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="S63" t="s">
         <v>218</v>
@@ -5956,7 +5956,7 @@
         <v>256</v>
       </c>
       <c r="L64" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M64" t="s">
         <v>336</v>
@@ -5968,13 +5968,13 @@
         <v>270</v>
       </c>
       <c r="P64" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q64" t="s">
         <v>217</v>
       </c>
       <c r="R64" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S64" t="s">
         <v>345</v>
@@ -6027,19 +6027,19 @@
         <v>328</v>
       </c>
       <c r="N65" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O65" t="s">
         <v>303</v>
       </c>
       <c r="P65" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q65" t="s">
         <v>214</v>
       </c>
       <c r="R65" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S65" t="s">
         <v>345</v>
@@ -6065,16 +6065,16 @@
         <v>0</v>
       </c>
       <c r="E66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="s">
         <v>256</v>
       </c>
       <c r="G66" t="s">
-        <v>240</v>
+        <v>295</v>
       </c>
       <c r="H66" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="I66" t="s">
         <v>388</v>
@@ -6089,7 +6089,7 @@
         <v>478</v>
       </c>
       <c r="M66" t="s">
-        <v>240</v>
+        <v>295</v>
       </c>
       <c r="N66" t="s">
         <v>474</v>
@@ -6098,10 +6098,10 @@
         <v>256</v>
       </c>
       <c r="P66" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="Q66" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="R66" t="s">
         <v>480</v>
@@ -6139,16 +6139,16 @@
         <v>290</v>
       </c>
       <c r="H67" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="I67" t="s">
         <v>389</v>
       </c>
       <c r="J67" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K67" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="L67" t="s">
         <v>480</v>
@@ -6204,13 +6204,13 @@
         <v>244</v>
       </c>
       <c r="H68" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="I68" t="s">
         <v>390</v>
       </c>
       <c r="J68" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K68" t="s">
         <v>390</v>
@@ -6225,7 +6225,7 @@
         <v>474</v>
       </c>
       <c r="O68" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="P68" t="s">
         <v>480</v>
@@ -6281,25 +6281,25 @@
         <v>229</v>
       </c>
       <c r="L69" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M69" t="s">
         <v>314</v>
       </c>
       <c r="N69" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O69" t="s">
         <v>249</v>
       </c>
       <c r="P69" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q69" t="s">
         <v>217</v>
       </c>
       <c r="R69" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S69" t="s">
         <v>344</v>
@@ -6325,25 +6325,25 @@
         <v>0</v>
       </c>
       <c r="E70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" t="s">
         <v>259</v>
       </c>
       <c r="G70" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="H70" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="I70" t="s">
         <v>391</v>
       </c>
       <c r="J70" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K70" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="L70" t="s">
         <v>480</v>
@@ -6352,7 +6352,7 @@
         <v>259</v>
       </c>
       <c r="N70" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="O70" t="s">
         <v>391</v>
@@ -6361,7 +6361,7 @@
         <v>478</v>
       </c>
       <c r="Q70" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="R70" t="s">
         <v>474</v>
@@ -6464,7 +6464,7 @@
         <v>253</v>
       </c>
       <c r="H72" t="s">
-        <v>230</v>
+        <v>271</v>
       </c>
       <c r="I72" t="s">
         <v>392</v>
@@ -6485,7 +6485,7 @@
         <v>474</v>
       </c>
       <c r="O72" t="s">
-        <v>230</v>
+        <v>271</v>
       </c>
       <c r="P72" t="s">
         <v>480</v>
@@ -6529,13 +6529,13 @@
         <v>271</v>
       </c>
       <c r="H73" t="s">
-        <v>246</v>
+        <v>317</v>
       </c>
       <c r="I73" t="s">
         <v>393</v>
       </c>
       <c r="J73" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K73" t="s">
         <v>261</v>
@@ -6556,7 +6556,7 @@
         <v>478</v>
       </c>
       <c r="Q73" t="s">
-        <v>246</v>
+        <v>317</v>
       </c>
       <c r="R73" t="s">
         <v>480</v>
@@ -6594,16 +6594,16 @@
         <v>276</v>
       </c>
       <c r="H74" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="I74" t="s">
         <v>394</v>
       </c>
       <c r="J74" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K74" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="L74" t="s">
         <v>480</v>
@@ -6659,7 +6659,7 @@
         <v>284</v>
       </c>
       <c r="H75" t="s">
-        <v>229</v>
+        <v>308</v>
       </c>
       <c r="I75" t="s">
         <v>395</v>
@@ -6674,7 +6674,7 @@
         <v>475</v>
       </c>
       <c r="M75" t="s">
-        <v>229</v>
+        <v>308</v>
       </c>
       <c r="N75" t="s">
         <v>480</v>
@@ -6715,31 +6715,31 @@
         <v>0</v>
       </c>
       <c r="E76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="s">
         <v>264</v>
       </c>
       <c r="G76" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
       <c r="H76" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="I76" t="s">
         <v>396</v>
       </c>
       <c r="J76" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K76" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="L76" t="s">
         <v>480</v>
       </c>
       <c r="M76" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
       <c r="N76" t="s">
         <v>474</v>
@@ -6754,7 +6754,7 @@
         <v>264</v>
       </c>
       <c r="R76" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="S76" t="s">
         <v>218</v>
@@ -6807,7 +6807,7 @@
         <v>241</v>
       </c>
       <c r="N77" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O77" t="s">
         <v>225</v>
@@ -6845,16 +6845,16 @@
         <v>0</v>
       </c>
       <c r="E78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="s">
         <v>265</v>
       </c>
       <c r="G78" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="H78" t="s">
-        <v>305</v>
+        <v>252</v>
       </c>
       <c r="I78" t="s">
         <v>397</v>
@@ -6869,13 +6869,13 @@
         <v>478</v>
       </c>
       <c r="M78" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="N78" t="s">
         <v>474</v>
       </c>
       <c r="O78" t="s">
-        <v>305</v>
+        <v>252</v>
       </c>
       <c r="P78" t="s">
         <v>480</v>
@@ -6884,7 +6884,7 @@
         <v>265</v>
       </c>
       <c r="R78" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="S78" t="s">
         <v>218</v>
@@ -6931,25 +6931,25 @@
         <v>242</v>
       </c>
       <c r="L79" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M79" t="s">
         <v>224</v>
       </c>
       <c r="N79" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O79" t="s">
         <v>260</v>
       </c>
       <c r="P79" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q79" t="s">
         <v>216</v>
       </c>
       <c r="R79" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S79" t="s">
         <v>345</v>
@@ -6984,13 +6984,13 @@
         <v>215</v>
       </c>
       <c r="H80" t="s">
-        <v>328</v>
+        <v>228</v>
       </c>
       <c r="I80" t="s">
         <v>398</v>
       </c>
       <c r="J80" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K80" t="s">
         <v>215</v>
@@ -6999,7 +6999,7 @@
         <v>474</v>
       </c>
       <c r="M80" t="s">
-        <v>328</v>
+        <v>228</v>
       </c>
       <c r="N80" t="s">
         <v>480</v>
@@ -7073,13 +7073,13 @@
         <v>315</v>
       </c>
       <c r="P81" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q81" t="s">
         <v>238</v>
       </c>
       <c r="R81" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S81" t="s">
         <v>343</v>
@@ -7105,16 +7105,16 @@
         <v>0</v>
       </c>
       <c r="E82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="s">
         <v>267</v>
       </c>
       <c r="G82" t="s">
-        <v>272</v>
+        <v>328</v>
       </c>
       <c r="H82" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="I82" t="s">
         <v>399</v>
@@ -7126,10 +7126,10 @@
         <v>267</v>
       </c>
       <c r="L82" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="M82" t="s">
-        <v>272</v>
+        <v>328</v>
       </c>
       <c r="N82" t="s">
         <v>474</v>
@@ -7141,7 +7141,7 @@
         <v>478</v>
       </c>
       <c r="Q82" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="R82" t="s">
         <v>480</v>
@@ -7179,16 +7179,16 @@
         <v>301</v>
       </c>
       <c r="H83" t="s">
-        <v>267</v>
+        <v>340</v>
       </c>
       <c r="I83" t="s">
         <v>400</v>
       </c>
       <c r="J83" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K83" t="s">
-        <v>267</v>
+        <v>340</v>
       </c>
       <c r="L83" t="s">
         <v>480</v>
@@ -7235,31 +7235,31 @@
         <v>0</v>
       </c>
       <c r="E84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" t="s">
         <v>269</v>
       </c>
       <c r="G84" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="H84" t="s">
-        <v>336</v>
+        <v>257</v>
       </c>
       <c r="I84" t="s">
         <v>401</v>
       </c>
       <c r="J84" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K84" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="L84" t="s">
         <v>474</v>
       </c>
       <c r="M84" t="s">
-        <v>336</v>
+        <v>257</v>
       </c>
       <c r="N84" t="s">
         <v>480</v>
@@ -7274,7 +7274,7 @@
         <v>269</v>
       </c>
       <c r="R84" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="S84" t="s">
         <v>218</v>
@@ -7309,16 +7309,16 @@
         <v>277</v>
       </c>
       <c r="H85" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="I85" t="s">
         <v>402</v>
       </c>
       <c r="J85" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K85" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="L85" t="s">
         <v>480</v>
@@ -7398,13 +7398,13 @@
         <v>302</v>
       </c>
       <c r="P86" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q86" t="s">
         <v>254</v>
       </c>
       <c r="R86" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S86" t="s">
         <v>343</v>
@@ -7439,7 +7439,7 @@
         <v>316</v>
       </c>
       <c r="H87" t="s">
-        <v>325</v>
+        <v>220</v>
       </c>
       <c r="I87" t="s">
         <v>403</v>
@@ -7466,7 +7466,7 @@
         <v>478</v>
       </c>
       <c r="Q87" t="s">
-        <v>325</v>
+        <v>220</v>
       </c>
       <c r="R87" t="s">
         <v>480</v>
@@ -7581,25 +7581,25 @@
         <v>309</v>
       </c>
       <c r="L89" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M89" t="s">
         <v>239</v>
       </c>
       <c r="N89" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O89" t="s">
         <v>230</v>
       </c>
       <c r="P89" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q89" t="s">
         <v>227</v>
       </c>
       <c r="R89" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S89" t="s">
         <v>344</v>
@@ -7625,16 +7625,16 @@
         <v>0</v>
       </c>
       <c r="E90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="s">
         <v>272</v>
       </c>
       <c r="G90" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="H90" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="I90" t="s">
         <v>404</v>
@@ -7646,7 +7646,7 @@
         <v>272</v>
       </c>
       <c r="L90" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="M90" t="s">
         <v>404</v>
@@ -7655,13 +7655,13 @@
         <v>478</v>
       </c>
       <c r="O90" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="P90" t="s">
         <v>480</v>
       </c>
       <c r="Q90" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="R90" t="s">
         <v>474</v>
@@ -7755,16 +7755,16 @@
         <v>0</v>
       </c>
       <c r="E92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" t="s">
         <v>273</v>
       </c>
       <c r="G92" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="H92" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="I92" t="s">
         <v>405</v>
@@ -7776,16 +7776,16 @@
         <v>273</v>
       </c>
       <c r="L92" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="M92" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="N92" t="s">
         <v>474</v>
       </c>
       <c r="O92" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="P92" t="s">
         <v>480</v>
@@ -7820,25 +7820,25 @@
         <v>0</v>
       </c>
       <c r="E93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="s">
         <v>274</v>
       </c>
       <c r="G93" t="s">
-        <v>317</v>
+        <v>273</v>
       </c>
       <c r="H93" t="s">
-        <v>320</v>
+        <v>256</v>
       </c>
       <c r="I93" t="s">
         <v>406</v>
       </c>
       <c r="J93" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K93" t="s">
-        <v>320</v>
+        <v>256</v>
       </c>
       <c r="L93" t="s">
         <v>480</v>
@@ -7850,7 +7850,7 @@
         <v>478</v>
       </c>
       <c r="O93" t="s">
-        <v>317</v>
+        <v>273</v>
       </c>
       <c r="P93" t="s">
         <v>474</v>
@@ -7859,7 +7859,7 @@
         <v>274</v>
       </c>
       <c r="R93" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="S93" t="s">
         <v>218</v>
@@ -7918,13 +7918,13 @@
         <v>248</v>
       </c>
       <c r="P94" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q94" t="s">
         <v>337</v>
       </c>
       <c r="R94" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S94" t="s">
         <v>343</v>
@@ -7959,7 +7959,7 @@
         <v>326</v>
       </c>
       <c r="H95" t="s">
-        <v>308</v>
+        <v>219</v>
       </c>
       <c r="I95" t="s">
         <v>407</v>
@@ -7980,7 +7980,7 @@
         <v>475</v>
       </c>
       <c r="O95" t="s">
-        <v>308</v>
+        <v>219</v>
       </c>
       <c r="P95" t="s">
         <v>480</v>
@@ -8024,13 +8024,13 @@
         <v>338</v>
       </c>
       <c r="H96" t="s">
-        <v>213</v>
+        <v>288</v>
       </c>
       <c r="I96" t="s">
         <v>408</v>
       </c>
       <c r="J96" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K96" t="s">
         <v>408</v>
@@ -8039,7 +8039,7 @@
         <v>478</v>
       </c>
       <c r="M96" t="s">
-        <v>213</v>
+        <v>288</v>
       </c>
       <c r="N96" t="s">
         <v>480</v>
@@ -8089,13 +8089,13 @@
         <v>226</v>
       </c>
       <c r="H97" t="s">
-        <v>223</v>
+        <v>334</v>
       </c>
       <c r="I97" t="s">
         <v>409</v>
       </c>
       <c r="J97" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K97" t="s">
         <v>409</v>
@@ -8110,7 +8110,7 @@
         <v>475</v>
       </c>
       <c r="O97" t="s">
-        <v>223</v>
+        <v>334</v>
       </c>
       <c r="P97" t="s">
         <v>480</v>
@@ -8154,13 +8154,13 @@
         <v>262</v>
       </c>
       <c r="H98" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="I98" t="s">
         <v>410</v>
       </c>
       <c r="J98" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K98" t="s">
         <v>410</v>
@@ -8169,7 +8169,7 @@
         <v>478</v>
       </c>
       <c r="M98" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="N98" t="s">
         <v>480</v>
@@ -8231,25 +8231,25 @@
         <v>280</v>
       </c>
       <c r="L99" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M99" t="s">
         <v>295</v>
       </c>
       <c r="N99" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O99" t="s">
         <v>290</v>
       </c>
       <c r="P99" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q99" t="s">
         <v>238</v>
       </c>
       <c r="R99" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S99" t="s">
         <v>345</v>
@@ -8296,7 +8296,7 @@
         <v>305</v>
       </c>
       <c r="L100" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M100" t="s">
         <v>293</v>
@@ -8308,13 +8308,13 @@
         <v>271</v>
       </c>
       <c r="P100" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q100" t="s">
         <v>301</v>
       </c>
       <c r="R100" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S100" t="s">
         <v>344</v>
@@ -8361,25 +8361,25 @@
         <v>245</v>
       </c>
       <c r="L101" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M101" t="s">
         <v>321</v>
       </c>
       <c r="N101" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O101" t="s">
         <v>289</v>
       </c>
       <c r="P101" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q101" t="s">
         <v>320</v>
       </c>
       <c r="R101" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S101" t="s">
         <v>345</v>
@@ -8405,16 +8405,16 @@
         <v>0</v>
       </c>
       <c r="E102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" t="s">
         <v>279</v>
       </c>
       <c r="G102" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="H102" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="I102" t="s">
         <v>411</v>
@@ -8423,7 +8423,7 @@
         <v>343</v>
       </c>
       <c r="K102" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="L102" t="s">
         <v>480</v>
@@ -8435,7 +8435,7 @@
         <v>478</v>
       </c>
       <c r="O102" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="P102" t="s">
         <v>474</v>
@@ -8444,7 +8444,7 @@
         <v>279</v>
       </c>
       <c r="R102" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="S102" t="s">
         <v>218</v>
@@ -8535,22 +8535,22 @@
         <v>0</v>
       </c>
       <c r="E104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104" t="s">
         <v>280</v>
       </c>
       <c r="G104" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="H104" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="I104" t="s">
         <v>412</v>
       </c>
       <c r="J104" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K104" t="s">
         <v>412</v>
@@ -8559,7 +8559,7 @@
         <v>478</v>
       </c>
       <c r="M104" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="N104" t="s">
         <v>474</v>
@@ -8568,10 +8568,10 @@
         <v>280</v>
       </c>
       <c r="P104" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="Q104" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="R104" t="s">
         <v>480</v>
@@ -8600,25 +8600,25 @@
         <v>0</v>
       </c>
       <c r="E105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" t="s">
         <v>281</v>
       </c>
       <c r="G105" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
       <c r="H105" t="s">
-        <v>256</v>
+        <v>296</v>
       </c>
       <c r="I105" t="s">
         <v>413</v>
       </c>
       <c r="J105" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K105" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
       <c r="L105" t="s">
         <v>474</v>
@@ -8627,10 +8627,10 @@
         <v>281</v>
       </c>
       <c r="N105" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="O105" t="s">
-        <v>256</v>
+        <v>296</v>
       </c>
       <c r="P105" t="s">
         <v>480</v>
@@ -8698,13 +8698,13 @@
         <v>216</v>
       </c>
       <c r="P106" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q106" t="s">
         <v>323</v>
       </c>
       <c r="R106" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S106" t="s">
         <v>342</v>
@@ -8751,25 +8751,25 @@
         <v>242</v>
       </c>
       <c r="L107" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M107" t="s">
         <v>325</v>
       </c>
       <c r="N107" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O107" t="s">
         <v>249</v>
       </c>
       <c r="P107" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q107" t="s">
         <v>284</v>
       </c>
       <c r="R107" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S107" t="s">
         <v>345</v>
@@ -8795,16 +8795,16 @@
         <v>0</v>
       </c>
       <c r="E108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108" t="s">
         <v>282</v>
       </c>
       <c r="G108" t="s">
-        <v>274</v>
+        <v>334</v>
       </c>
       <c r="H108" t="s">
-        <v>321</v>
+        <v>279</v>
       </c>
       <c r="I108" t="s">
         <v>414</v>
@@ -8816,10 +8816,10 @@
         <v>282</v>
       </c>
       <c r="L108" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="M108" t="s">
-        <v>274</v>
+        <v>334</v>
       </c>
       <c r="N108" t="s">
         <v>474</v>
@@ -8831,7 +8831,7 @@
         <v>478</v>
       </c>
       <c r="Q108" t="s">
-        <v>321</v>
+        <v>279</v>
       </c>
       <c r="R108" t="s">
         <v>480</v>
@@ -8869,13 +8869,13 @@
         <v>236</v>
       </c>
       <c r="H109" t="s">
-        <v>316</v>
+        <v>242</v>
       </c>
       <c r="I109" t="s">
         <v>415</v>
       </c>
       <c r="J109" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K109" t="s">
         <v>236</v>
@@ -8884,7 +8884,7 @@
         <v>474</v>
       </c>
       <c r="M109" t="s">
-        <v>316</v>
+        <v>242</v>
       </c>
       <c r="N109" t="s">
         <v>480</v>
@@ -8934,13 +8934,13 @@
         <v>217</v>
       </c>
       <c r="H110" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="I110" t="s">
         <v>416</v>
       </c>
       <c r="J110" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K110" t="s">
         <v>217</v>
@@ -8955,7 +8955,7 @@
         <v>475</v>
       </c>
       <c r="O110" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="P110" t="s">
         <v>480</v>
@@ -8999,13 +8999,13 @@
         <v>213</v>
       </c>
       <c r="H111" t="s">
-        <v>339</v>
+        <v>246</v>
       </c>
       <c r="I111" t="s">
         <v>417</v>
       </c>
       <c r="J111" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K111" t="s">
         <v>213</v>
@@ -9020,7 +9020,7 @@
         <v>478</v>
       </c>
       <c r="O111" t="s">
-        <v>339</v>
+        <v>246</v>
       </c>
       <c r="P111" t="s">
         <v>480</v>
@@ -9055,31 +9055,31 @@
         <v>0</v>
       </c>
       <c r="E112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" t="s">
         <v>286</v>
       </c>
       <c r="G112" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H112" t="s">
-        <v>302</v>
+        <v>235</v>
       </c>
       <c r="I112" t="s">
         <v>418</v>
       </c>
       <c r="J112" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K112" t="s">
         <v>286</v>
       </c>
       <c r="L112" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="M112" t="s">
-        <v>302</v>
+        <v>235</v>
       </c>
       <c r="N112" t="s">
         <v>480</v>
@@ -9091,7 +9091,7 @@
         <v>478</v>
       </c>
       <c r="Q112" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="R112" t="s">
         <v>474</v>
@@ -9153,13 +9153,13 @@
         <v>338</v>
       </c>
       <c r="P113" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q113" t="s">
         <v>289</v>
       </c>
       <c r="R113" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S113" t="s">
         <v>342</v>
@@ -9185,37 +9185,37 @@
         <v>0</v>
       </c>
       <c r="E114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114" t="s">
         <v>287</v>
       </c>
       <c r="G114" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="H114" t="s">
-        <v>249</v>
+        <v>312</v>
       </c>
       <c r="I114" t="s">
         <v>419</v>
       </c>
       <c r="J114" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K114" t="s">
         <v>287</v>
       </c>
       <c r="L114" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="M114" t="s">
-        <v>249</v>
+        <v>312</v>
       </c>
       <c r="N114" t="s">
         <v>480</v>
       </c>
       <c r="O114" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="P114" t="s">
         <v>474</v>
@@ -9315,16 +9315,16 @@
         <v>0</v>
       </c>
       <c r="E116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" t="s">
         <v>288</v>
       </c>
       <c r="G116" t="s">
-        <v>328</v>
+        <v>223</v>
       </c>
       <c r="H116" t="s">
-        <v>340</v>
+        <v>281</v>
       </c>
       <c r="I116" t="s">
         <v>420</v>
@@ -9333,13 +9333,13 @@
         <v>344</v>
       </c>
       <c r="K116" t="s">
-        <v>328</v>
+        <v>223</v>
       </c>
       <c r="L116" t="s">
         <v>474</v>
       </c>
       <c r="M116" t="s">
-        <v>340</v>
+        <v>281</v>
       </c>
       <c r="N116" t="s">
         <v>480</v>
@@ -9348,7 +9348,7 @@
         <v>288</v>
       </c>
       <c r="P116" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="Q116" t="s">
         <v>420</v>
@@ -9389,13 +9389,13 @@
         <v>216</v>
       </c>
       <c r="H117" t="s">
-        <v>304</v>
+        <v>213</v>
       </c>
       <c r="I117" t="s">
         <v>421</v>
       </c>
       <c r="J117" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K117" t="s">
         <v>289</v>
@@ -9410,7 +9410,7 @@
         <v>478</v>
       </c>
       <c r="O117" t="s">
-        <v>304</v>
+        <v>213</v>
       </c>
       <c r="P117" t="s">
         <v>480</v>
@@ -9478,13 +9478,13 @@
         <v>276</v>
       </c>
       <c r="P118" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q118" t="s">
         <v>277</v>
       </c>
       <c r="R118" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S118" t="s">
         <v>342</v>
@@ -9531,13 +9531,13 @@
         <v>267</v>
       </c>
       <c r="L119" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M119" t="s">
         <v>287</v>
       </c>
       <c r="N119" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O119" t="s">
         <v>234</v>
@@ -9549,7 +9549,7 @@
         <v>293</v>
       </c>
       <c r="R119" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="S119" t="s">
         <v>345</v>
@@ -9584,13 +9584,13 @@
         <v>250</v>
       </c>
       <c r="H120" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="I120" t="s">
         <v>422</v>
       </c>
       <c r="J120" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K120" t="s">
         <v>250</v>
@@ -9605,7 +9605,7 @@
         <v>475</v>
       </c>
       <c r="O120" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="P120" t="s">
         <v>480</v>
@@ -9640,16 +9640,16 @@
         <v>0</v>
       </c>
       <c r="E121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121" t="s">
         <v>291</v>
       </c>
       <c r="G121" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="H121" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="I121" t="s">
         <v>423</v>
@@ -9658,7 +9658,7 @@
         <v>342</v>
       </c>
       <c r="K121" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="L121" t="s">
         <v>474</v>
@@ -9673,10 +9673,10 @@
         <v>291</v>
       </c>
       <c r="P121" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="Q121" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="R121" t="s">
         <v>480</v>
@@ -9711,16 +9711,16 @@
         <v>292</v>
       </c>
       <c r="G122" t="s">
-        <v>286</v>
+        <v>239</v>
       </c>
       <c r="H122" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="I122" t="s">
         <v>424</v>
       </c>
       <c r="J122" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K122" t="s">
         <v>424</v>
@@ -9735,13 +9735,13 @@
         <v>475</v>
       </c>
       <c r="O122" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="P122" t="s">
         <v>480</v>
       </c>
       <c r="Q122" t="s">
-        <v>286</v>
+        <v>239</v>
       </c>
       <c r="R122" t="s">
         <v>474</v>
@@ -9841,19 +9841,19 @@
         <v>293</v>
       </c>
       <c r="G124" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H124" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="I124" t="s">
         <v>425</v>
       </c>
       <c r="J124" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K124" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="L124" t="s">
         <v>480</v>
@@ -9865,7 +9865,7 @@
         <v>479</v>
       </c>
       <c r="O124" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P124" t="s">
         <v>474</v>
@@ -9906,16 +9906,16 @@
         <v>294</v>
       </c>
       <c r="G125" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H125" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="I125" t="s">
         <v>426</v>
       </c>
       <c r="J125" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K125" t="s">
         <v>294</v>
@@ -9924,13 +9924,13 @@
         <v>479</v>
       </c>
       <c r="M125" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="N125" t="s">
         <v>474</v>
       </c>
       <c r="O125" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="P125" t="s">
         <v>480</v>
@@ -9965,16 +9965,16 @@
         <v>0</v>
       </c>
       <c r="E126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" t="s">
         <v>295</v>
       </c>
       <c r="G126" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="H126" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="I126" t="s">
         <v>427</v>
@@ -9989,13 +9989,13 @@
         <v>478</v>
       </c>
       <c r="M126" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="N126" t="s">
         <v>474</v>
       </c>
       <c r="O126" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="P126" t="s">
         <v>480</v>
@@ -10004,7 +10004,7 @@
         <v>295</v>
       </c>
       <c r="R126" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="S126" t="s">
         <v>218</v>
@@ -10039,16 +10039,16 @@
         <v>231</v>
       </c>
       <c r="H127" t="s">
-        <v>216</v>
+        <v>311</v>
       </c>
       <c r="I127" t="s">
         <v>428</v>
       </c>
       <c r="J127" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K127" t="s">
-        <v>216</v>
+        <v>311</v>
       </c>
       <c r="L127" t="s">
         <v>480</v>
@@ -10095,31 +10095,31 @@
         <v>0</v>
       </c>
       <c r="E128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" t="s">
         <v>297</v>
       </c>
       <c r="G128" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="H128" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="I128" t="s">
         <v>429</v>
       </c>
       <c r="J128" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K128" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="L128" t="s">
         <v>474</v>
       </c>
       <c r="M128" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="N128" t="s">
         <v>480</v>
@@ -10128,7 +10128,7 @@
         <v>297</v>
       </c>
       <c r="P128" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="Q128" t="s">
         <v>429</v>
@@ -10160,22 +10160,22 @@
         <v>0</v>
       </c>
       <c r="E129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="s">
         <v>298</v>
       </c>
       <c r="G129" t="s">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="H129" t="s">
-        <v>227</v>
+        <v>335</v>
       </c>
       <c r="I129" t="s">
         <v>430</v>
       </c>
       <c r="J129" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K129" t="s">
         <v>430</v>
@@ -10184,13 +10184,13 @@
         <v>478</v>
       </c>
       <c r="M129" t="s">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="N129" t="s">
         <v>474</v>
       </c>
       <c r="O129" t="s">
-        <v>227</v>
+        <v>335</v>
       </c>
       <c r="P129" t="s">
         <v>480</v>
@@ -10199,7 +10199,7 @@
         <v>298</v>
       </c>
       <c r="R129" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="S129" t="s">
         <v>218</v>
@@ -10246,13 +10246,13 @@
         <v>318</v>
       </c>
       <c r="L130" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M130" t="s">
         <v>265</v>
       </c>
       <c r="N130" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O130" t="s">
         <v>269</v>
@@ -10299,13 +10299,13 @@
         <v>335</v>
       </c>
       <c r="H131" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="I131" t="s">
         <v>431</v>
       </c>
       <c r="J131" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K131" t="s">
         <v>431</v>
@@ -10320,7 +10320,7 @@
         <v>475</v>
       </c>
       <c r="O131" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="P131" t="s">
         <v>480</v>
@@ -10376,13 +10376,13 @@
         <v>233</v>
       </c>
       <c r="L132" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M132" t="s">
         <v>221</v>
       </c>
       <c r="N132" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O132" t="s">
         <v>225</v>
@@ -10429,13 +10429,13 @@
         <v>266</v>
       </c>
       <c r="H133" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="I133" t="s">
         <v>432</v>
       </c>
       <c r="J133" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K133" t="s">
         <v>432</v>
@@ -10444,7 +10444,7 @@
         <v>478</v>
       </c>
       <c r="M133" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="N133" t="s">
         <v>480</v>
@@ -10494,7 +10494,7 @@
         <v>315</v>
       </c>
       <c r="H134" t="s">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="I134" t="s">
         <v>433</v>
@@ -10509,7 +10509,7 @@
         <v>478</v>
       </c>
       <c r="M134" t="s">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="N134" t="s">
         <v>480</v>
@@ -10583,13 +10583,13 @@
         <v>339</v>
       </c>
       <c r="P135" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q135" t="s">
         <v>306</v>
       </c>
       <c r="R135" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S135" t="s">
         <v>342</v>
@@ -10624,13 +10624,13 @@
         <v>254</v>
       </c>
       <c r="H136" t="s">
-        <v>225</v>
+        <v>328</v>
       </c>
       <c r="I136" t="s">
         <v>434</v>
       </c>
       <c r="J136" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K136" t="s">
         <v>254</v>
@@ -10651,7 +10651,7 @@
         <v>478</v>
       </c>
       <c r="Q136" t="s">
-        <v>225</v>
+        <v>328</v>
       </c>
       <c r="R136" t="s">
         <v>480</v>
@@ -10689,7 +10689,7 @@
         <v>320</v>
       </c>
       <c r="H137" t="s">
-        <v>247</v>
+        <v>318</v>
       </c>
       <c r="I137" t="s">
         <v>435</v>
@@ -10698,7 +10698,7 @@
         <v>345</v>
       </c>
       <c r="K137" t="s">
-        <v>247</v>
+        <v>318</v>
       </c>
       <c r="L137" t="s">
         <v>480</v>
@@ -10745,16 +10745,16 @@
         <v>0</v>
       </c>
       <c r="E138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138" t="s">
         <v>304</v>
       </c>
       <c r="G138" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="H138" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="I138" t="s">
         <v>436</v>
@@ -10763,7 +10763,7 @@
         <v>344</v>
       </c>
       <c r="K138" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="L138" t="s">
         <v>480</v>
@@ -10775,7 +10775,7 @@
         <v>478</v>
       </c>
       <c r="O138" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="P138" t="s">
         <v>474</v>
@@ -10784,7 +10784,7 @@
         <v>304</v>
       </c>
       <c r="R138" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="S138" t="s">
         <v>218</v>
@@ -10810,25 +10810,25 @@
         <v>0</v>
       </c>
       <c r="E139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139" t="s">
         <v>305</v>
       </c>
       <c r="G139" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="H139" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="I139" t="s">
         <v>437</v>
       </c>
       <c r="J139" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K139" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="L139" t="s">
         <v>480</v>
@@ -10840,7 +10840,7 @@
         <v>478</v>
       </c>
       <c r="O139" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="P139" t="s">
         <v>474</v>
@@ -10849,7 +10849,7 @@
         <v>305</v>
       </c>
       <c r="R139" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="S139" t="s">
         <v>218</v>
@@ -10884,7 +10884,7 @@
         <v>289</v>
       </c>
       <c r="H140" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="I140" t="s">
         <v>438</v>
@@ -10893,7 +10893,7 @@
         <v>344</v>
       </c>
       <c r="K140" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="L140" t="s">
         <v>480</v>
@@ -10961,13 +10961,13 @@
         <v>311</v>
       </c>
       <c r="L141" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M141" t="s">
         <v>281</v>
       </c>
       <c r="N141" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O141" t="s">
         <v>223</v>
@@ -10979,7 +10979,7 @@
         <v>294</v>
       </c>
       <c r="R141" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="S141" t="s">
         <v>344</v>
@@ -11038,13 +11038,13 @@
         <v>302</v>
       </c>
       <c r="P142" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q142" t="s">
         <v>248</v>
       </c>
       <c r="R142" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S142" t="s">
         <v>343</v>
@@ -11076,19 +11076,19 @@
         <v>307</v>
       </c>
       <c r="G143" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="H143" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="I143" t="s">
         <v>439</v>
       </c>
       <c r="J143" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K143" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="L143" t="s">
         <v>474</v>
@@ -11106,7 +11106,7 @@
         <v>475</v>
       </c>
       <c r="Q143" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="R143" t="s">
         <v>480</v>
@@ -11135,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="E144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144" t="s">
         <v>308</v>
       </c>
       <c r="G144" t="s">
-        <v>307</v>
+        <v>252</v>
       </c>
       <c r="H144" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="I144" t="s">
         <v>440</v>
@@ -11153,7 +11153,7 @@
         <v>343</v>
       </c>
       <c r="K144" t="s">
-        <v>307</v>
+        <v>252</v>
       </c>
       <c r="L144" t="s">
         <v>474</v>
@@ -11165,7 +11165,7 @@
         <v>478</v>
       </c>
       <c r="O144" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="P144" t="s">
         <v>480</v>
@@ -11174,7 +11174,7 @@
         <v>308</v>
       </c>
       <c r="R144" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="S144" t="s">
         <v>218</v>
@@ -11200,16 +11200,16 @@
         <v>0</v>
       </c>
       <c r="E145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145" t="s">
         <v>309</v>
       </c>
       <c r="G145" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="H145" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="I145" t="s">
         <v>441</v>
@@ -11221,16 +11221,16 @@
         <v>309</v>
       </c>
       <c r="L145" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="M145" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="N145" t="s">
         <v>474</v>
       </c>
       <c r="O145" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="P145" t="s">
         <v>480</v>
@@ -11274,13 +11274,13 @@
         <v>337</v>
       </c>
       <c r="H146" t="s">
-        <v>284</v>
+        <v>341</v>
       </c>
       <c r="I146" t="s">
         <v>442</v>
       </c>
       <c r="J146" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K146" t="s">
         <v>442</v>
@@ -11295,7 +11295,7 @@
         <v>474</v>
       </c>
       <c r="O146" t="s">
-        <v>284</v>
+        <v>341</v>
       </c>
       <c r="P146" t="s">
         <v>480</v>
@@ -11330,16 +11330,16 @@
         <v>0</v>
       </c>
       <c r="E147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147" t="s">
         <v>311</v>
       </c>
       <c r="G147" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="H147" t="s">
-        <v>217</v>
+        <v>276</v>
       </c>
       <c r="I147" t="s">
         <v>443</v>
@@ -11354,13 +11354,13 @@
         <v>478</v>
       </c>
       <c r="M147" t="s">
-        <v>217</v>
+        <v>276</v>
       </c>
       <c r="N147" t="s">
         <v>480</v>
       </c>
       <c r="O147" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="P147" t="s">
         <v>474</v>
@@ -11369,7 +11369,7 @@
         <v>311</v>
       </c>
       <c r="R147" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="S147" t="s">
         <v>218</v>
@@ -11416,25 +11416,25 @@
         <v>239</v>
       </c>
       <c r="L148" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M148" t="s">
         <v>228</v>
       </c>
       <c r="N148" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O148" t="s">
         <v>258</v>
       </c>
       <c r="P148" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q148" t="s">
         <v>278</v>
       </c>
       <c r="R148" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S148" t="s">
         <v>344</v>
@@ -11469,7 +11469,7 @@
         <v>310</v>
       </c>
       <c r="H149" t="s">
-        <v>236</v>
+        <v>326</v>
       </c>
       <c r="I149" t="s">
         <v>444</v>
@@ -11478,7 +11478,7 @@
         <v>343</v>
       </c>
       <c r="K149" t="s">
-        <v>236</v>
+        <v>326</v>
       </c>
       <c r="L149" t="s">
         <v>480</v>
@@ -11534,7 +11534,7 @@
         <v>275</v>
       </c>
       <c r="H150" t="s">
-        <v>259</v>
+        <v>319</v>
       </c>
       <c r="I150" t="s">
         <v>445</v>
@@ -11555,7 +11555,7 @@
         <v>474</v>
       </c>
       <c r="O150" t="s">
-        <v>259</v>
+        <v>319</v>
       </c>
       <c r="P150" t="s">
         <v>480</v>
@@ -11590,31 +11590,31 @@
         <v>0</v>
       </c>
       <c r="E151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" t="s">
         <v>314</v>
       </c>
       <c r="G151" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="H151" t="s">
-        <v>338</v>
+        <v>215</v>
       </c>
       <c r="I151" t="s">
         <v>446</v>
       </c>
       <c r="J151" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K151" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="L151" t="s">
         <v>474</v>
       </c>
       <c r="M151" t="s">
-        <v>338</v>
+        <v>215</v>
       </c>
       <c r="N151" t="s">
         <v>480</v>
@@ -11623,7 +11623,7 @@
         <v>314</v>
       </c>
       <c r="P151" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="Q151" t="s">
         <v>446</v>
@@ -11664,16 +11664,16 @@
         <v>322</v>
       </c>
       <c r="H152" t="s">
-        <v>234</v>
+        <v>278</v>
       </c>
       <c r="I152" t="s">
         <v>447</v>
       </c>
       <c r="J152" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K152" t="s">
-        <v>234</v>
+        <v>278</v>
       </c>
       <c r="L152" t="s">
         <v>480</v>
@@ -11729,13 +11729,13 @@
         <v>300</v>
       </c>
       <c r="H153" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="I153" t="s">
         <v>448</v>
       </c>
       <c r="J153" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K153" t="s">
         <v>316</v>
@@ -11750,7 +11750,7 @@
         <v>474</v>
       </c>
       <c r="O153" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="P153" t="s">
         <v>480</v>
@@ -11785,16 +11785,16 @@
         <v>0</v>
       </c>
       <c r="E154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154" t="s">
         <v>317</v>
       </c>
       <c r="G154" t="s">
-        <v>319</v>
+        <v>225</v>
       </c>
       <c r="H154" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="I154" t="s">
         <v>449</v>
@@ -11809,7 +11809,7 @@
         <v>478</v>
       </c>
       <c r="M154" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="N154" t="s">
         <v>480</v>
@@ -11818,10 +11818,10 @@
         <v>317</v>
       </c>
       <c r="P154" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="Q154" t="s">
-        <v>319</v>
+        <v>225</v>
       </c>
       <c r="R154" t="s">
         <v>474</v>
@@ -11871,7 +11871,7 @@
         <v>219</v>
       </c>
       <c r="L155" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M155" t="s">
         <v>292</v>
@@ -11915,31 +11915,31 @@
         <v>0</v>
       </c>
       <c r="E156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156" t="s">
         <v>318</v>
       </c>
       <c r="G156" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H156" t="s">
-        <v>337</v>
+        <v>260</v>
       </c>
       <c r="I156" t="s">
         <v>450</v>
       </c>
       <c r="J156" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K156" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="L156" t="s">
         <v>474</v>
       </c>
       <c r="M156" t="s">
-        <v>337</v>
+        <v>260</v>
       </c>
       <c r="N156" t="s">
         <v>480</v>
@@ -11954,7 +11954,7 @@
         <v>318</v>
       </c>
       <c r="R156" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="S156" t="s">
         <v>218</v>
@@ -11980,22 +11980,22 @@
         <v>0</v>
       </c>
       <c r="E157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157" t="s">
         <v>319</v>
       </c>
       <c r="G157" t="s">
-        <v>308</v>
+        <v>219</v>
       </c>
       <c r="H157" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="I157" t="s">
         <v>451</v>
       </c>
       <c r="J157" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K157" t="s">
         <v>451</v>
@@ -12004,13 +12004,13 @@
         <v>478</v>
       </c>
       <c r="M157" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="N157" t="s">
         <v>480</v>
       </c>
       <c r="O157" t="s">
-        <v>308</v>
+        <v>219</v>
       </c>
       <c r="P157" t="s">
         <v>474</v>
@@ -12019,7 +12019,7 @@
         <v>319</v>
       </c>
       <c r="R157" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="S157" t="s">
         <v>218</v>
@@ -12137,19 +12137,19 @@
         <v>297</v>
       </c>
       <c r="N159" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O159" t="s">
         <v>320</v>
       </c>
       <c r="P159" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q159" t="s">
         <v>226</v>
       </c>
       <c r="R159" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S159" t="s">
         <v>344</v>
@@ -12184,13 +12184,13 @@
         <v>306</v>
       </c>
       <c r="H160" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="I160" t="s">
         <v>452</v>
       </c>
       <c r="J160" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K160" t="s">
         <v>320</v>
@@ -12205,7 +12205,7 @@
         <v>474</v>
       </c>
       <c r="O160" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="P160" t="s">
         <v>480</v>
@@ -12240,16 +12240,16 @@
         <v>0</v>
       </c>
       <c r="E161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" t="s">
         <v>321</v>
       </c>
       <c r="G161" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="H161" t="s">
-        <v>299</v>
+        <v>216</v>
       </c>
       <c r="I161" t="s">
         <v>453</v>
@@ -12261,7 +12261,7 @@
         <v>321</v>
       </c>
       <c r="L161" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="M161" t="s">
         <v>453</v>
@@ -12270,13 +12270,13 @@
         <v>478</v>
       </c>
       <c r="O161" t="s">
-        <v>299</v>
+        <v>216</v>
       </c>
       <c r="P161" t="s">
         <v>480</v>
       </c>
       <c r="Q161" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="R161" t="s">
         <v>474</v>
@@ -12379,13 +12379,13 @@
         <v>299</v>
       </c>
       <c r="H163" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="I163" t="s">
         <v>455</v>
       </c>
       <c r="J163" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K163" t="s">
         <v>455</v>
@@ -12400,7 +12400,7 @@
         <v>475</v>
       </c>
       <c r="O163" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="P163" t="s">
         <v>480</v>
@@ -12468,13 +12468,13 @@
         <v>261</v>
       </c>
       <c r="P164" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q164" t="s">
         <v>215</v>
       </c>
       <c r="R164" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S164" t="s">
         <v>343</v>
@@ -12500,16 +12500,16 @@
         <v>0</v>
       </c>
       <c r="E165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165" t="s">
         <v>324</v>
       </c>
       <c r="G165" t="s">
-        <v>225</v>
+        <v>286</v>
       </c>
       <c r="H165" t="s">
-        <v>214</v>
+        <v>313</v>
       </c>
       <c r="I165" t="s">
         <v>456</v>
@@ -12518,7 +12518,7 @@
         <v>343</v>
       </c>
       <c r="K165" t="s">
-        <v>225</v>
+        <v>286</v>
       </c>
       <c r="L165" t="s">
         <v>474</v>
@@ -12527,7 +12527,7 @@
         <v>324</v>
       </c>
       <c r="N165" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="O165" t="s">
         <v>456</v>
@@ -12536,7 +12536,7 @@
         <v>478</v>
       </c>
       <c r="Q165" t="s">
-        <v>214</v>
+        <v>313</v>
       </c>
       <c r="R165" t="s">
         <v>480</v>
@@ -12565,31 +12565,31 @@
         <v>0</v>
       </c>
       <c r="E166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166" t="s">
         <v>325</v>
       </c>
       <c r="G166" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="H166" t="s">
-        <v>283</v>
+        <v>225</v>
       </c>
       <c r="I166" t="s">
         <v>457</v>
       </c>
       <c r="J166" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K166" t="s">
-        <v>283</v>
+        <v>225</v>
       </c>
       <c r="L166" t="s">
         <v>480</v>
       </c>
       <c r="M166" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="N166" t="s">
         <v>474</v>
@@ -12604,7 +12604,7 @@
         <v>325</v>
       </c>
       <c r="R166" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="S166" t="s">
         <v>218</v>
@@ -12639,16 +12639,16 @@
         <v>313</v>
       </c>
       <c r="H167" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="I167" t="s">
         <v>458</v>
       </c>
       <c r="J167" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K167" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="L167" t="s">
         <v>480</v>
@@ -12704,16 +12704,16 @@
         <v>248</v>
       </c>
       <c r="H168" t="s">
-        <v>219</v>
+        <v>277</v>
       </c>
       <c r="I168" t="s">
         <v>459</v>
       </c>
       <c r="J168" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K168" t="s">
-        <v>219</v>
+        <v>277</v>
       </c>
       <c r="L168" t="s">
         <v>480</v>
@@ -12760,25 +12760,25 @@
         <v>0</v>
       </c>
       <c r="E169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169" t="s">
         <v>328</v>
       </c>
       <c r="G169" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="H169" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="I169" t="s">
         <v>460</v>
       </c>
       <c r="J169" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K169" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="L169" t="s">
         <v>480</v>
@@ -12787,10 +12787,10 @@
         <v>328</v>
       </c>
       <c r="N169" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="O169" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="P169" t="s">
         <v>474</v>
@@ -12911,25 +12911,25 @@
         <v>308</v>
       </c>
       <c r="L171" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M171" t="s">
         <v>334</v>
       </c>
       <c r="N171" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O171" t="s">
         <v>230</v>
       </c>
       <c r="P171" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q171" t="s">
         <v>213</v>
       </c>
       <c r="R171" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S171" t="s">
         <v>344</v>
@@ -12964,13 +12964,13 @@
         <v>237</v>
       </c>
       <c r="H172" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="I172" t="s">
         <v>461</v>
       </c>
       <c r="J172" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K172" t="s">
         <v>237</v>
@@ -12991,7 +12991,7 @@
         <v>478</v>
       </c>
       <c r="Q172" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="R172" t="s">
         <v>480</v>
@@ -13029,7 +13029,7 @@
         <v>230</v>
       </c>
       <c r="H173" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="I173" t="s">
         <v>462</v>
@@ -13044,7 +13044,7 @@
         <v>474</v>
       </c>
       <c r="M173" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="N173" t="s">
         <v>480</v>
@@ -13094,13 +13094,13 @@
         <v>330</v>
       </c>
       <c r="H174" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="I174" t="s">
         <v>463</v>
       </c>
       <c r="J174" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K174" t="s">
         <v>330</v>
@@ -13121,7 +13121,7 @@
         <v>475</v>
       </c>
       <c r="Q174" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="R174" t="s">
         <v>480</v>
@@ -13159,16 +13159,16 @@
         <v>258</v>
       </c>
       <c r="H175" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="I175" t="s">
         <v>464</v>
       </c>
       <c r="J175" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K175" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="L175" t="s">
         <v>480</v>
@@ -13224,16 +13224,16 @@
         <v>227</v>
       </c>
       <c r="H176" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I176" t="s">
         <v>465</v>
       </c>
       <c r="J176" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K176" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L176" t="s">
         <v>480</v>
@@ -13307,19 +13307,19 @@
         <v>280</v>
       </c>
       <c r="N177" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O177" t="s">
         <v>283</v>
       </c>
       <c r="P177" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q177" t="s">
         <v>335</v>
       </c>
       <c r="R177" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S177" t="s">
         <v>345</v>
@@ -13366,25 +13366,25 @@
         <v>259</v>
       </c>
       <c r="L178" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M178" t="s">
         <v>311</v>
       </c>
       <c r="N178" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O178" t="s">
         <v>275</v>
       </c>
       <c r="P178" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q178" t="s">
         <v>313</v>
       </c>
       <c r="R178" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S178" t="s">
         <v>344</v>
@@ -13410,16 +13410,16 @@
         <v>0</v>
       </c>
       <c r="E179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179" t="s">
         <v>334</v>
       </c>
       <c r="G179" t="s">
-        <v>219</v>
+        <v>274</v>
       </c>
       <c r="H179" t="s">
-        <v>265</v>
+        <v>325</v>
       </c>
       <c r="I179" t="s">
         <v>466</v>
@@ -13428,13 +13428,13 @@
         <v>345</v>
       </c>
       <c r="K179" t="s">
-        <v>219</v>
+        <v>274</v>
       </c>
       <c r="L179" t="s">
         <v>474</v>
       </c>
       <c r="M179" t="s">
-        <v>265</v>
+        <v>325</v>
       </c>
       <c r="N179" t="s">
         <v>480</v>
@@ -13443,7 +13443,7 @@
         <v>334</v>
       </c>
       <c r="P179" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="Q179" t="s">
         <v>466</v>
@@ -13484,13 +13484,13 @@
         <v>260</v>
       </c>
       <c r="H180" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="I180" t="s">
         <v>467</v>
       </c>
       <c r="J180" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K180" t="s">
         <v>335</v>
@@ -13505,7 +13505,7 @@
         <v>474</v>
       </c>
       <c r="O180" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="P180" t="s">
         <v>480</v>
@@ -13561,25 +13561,25 @@
         <v>272</v>
       </c>
       <c r="L181" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M181" t="s">
         <v>264</v>
       </c>
       <c r="N181" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O181" t="s">
         <v>226</v>
       </c>
       <c r="P181" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q181" t="s">
         <v>253</v>
       </c>
       <c r="R181" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S181" t="s">
         <v>345</v>
@@ -13676,10 +13676,10 @@
         <v>336</v>
       </c>
       <c r="G183" t="s">
-        <v>245</v>
+        <v>321</v>
       </c>
       <c r="H183" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="I183" t="s">
         <v>468</v>
@@ -13688,13 +13688,13 @@
         <v>342</v>
       </c>
       <c r="K183" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="L183" t="s">
         <v>480</v>
       </c>
       <c r="M183" t="s">
-        <v>245</v>
+        <v>321</v>
       </c>
       <c r="N183" t="s">
         <v>474</v>
@@ -13744,16 +13744,16 @@
         <v>261</v>
       </c>
       <c r="H184" t="s">
-        <v>276</v>
+        <v>321</v>
       </c>
       <c r="I184" t="s">
         <v>469</v>
       </c>
       <c r="J184" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K184" t="s">
-        <v>276</v>
+        <v>321</v>
       </c>
       <c r="L184" t="s">
         <v>480</v>
@@ -13821,13 +13821,13 @@
         <v>319</v>
       </c>
       <c r="L185" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M185" t="s">
         <v>317</v>
       </c>
       <c r="N185" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O185" t="s">
         <v>220</v>
@@ -13886,25 +13886,25 @@
         <v>234</v>
       </c>
       <c r="L186" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M186" t="s">
         <v>286</v>
       </c>
       <c r="N186" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O186" t="s">
         <v>271</v>
       </c>
       <c r="P186" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q186" t="s">
         <v>266</v>
       </c>
       <c r="R186" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S186" t="s">
         <v>344</v>
@@ -13951,25 +13951,25 @@
         <v>281</v>
       </c>
       <c r="L187" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M187" t="s">
         <v>255</v>
       </c>
       <c r="N187" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O187" t="s">
         <v>339</v>
       </c>
       <c r="P187" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q187" t="s">
         <v>236</v>
       </c>
       <c r="R187" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S187" t="s">
         <v>344</v>
@@ -14004,13 +14004,13 @@
         <v>214</v>
       </c>
       <c r="H188" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I188" t="s">
         <v>470</v>
       </c>
       <c r="J188" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K188" t="s">
         <v>214</v>
@@ -14031,7 +14031,7 @@
         <v>478</v>
       </c>
       <c r="Q188" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="R188" t="s">
         <v>480</v>
@@ -14081,25 +14081,25 @@
         <v>265</v>
       </c>
       <c r="L189" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M189" t="s">
         <v>325</v>
       </c>
       <c r="N189" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O189" t="s">
         <v>323</v>
       </c>
       <c r="P189" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q189" t="s">
         <v>244</v>
       </c>
       <c r="R189" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S189" t="s">
         <v>345</v>
@@ -14134,13 +14134,13 @@
         <v>332</v>
       </c>
       <c r="H190" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="I190" t="s">
         <v>471</v>
       </c>
       <c r="J190" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K190" t="s">
         <v>339</v>
@@ -14161,7 +14161,7 @@
         <v>474</v>
       </c>
       <c r="Q190" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="R190" t="s">
         <v>480</v>
@@ -14190,16 +14190,16 @@
         <v>0</v>
       </c>
       <c r="E191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="s">
         <v>340</v>
       </c>
       <c r="G191" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="H191" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="I191" t="s">
         <v>472</v>
@@ -14208,13 +14208,13 @@
         <v>343</v>
       </c>
       <c r="K191" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="L191" t="s">
         <v>474</v>
       </c>
       <c r="M191" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="N191" t="s">
         <v>480</v>
@@ -14223,7 +14223,7 @@
         <v>340</v>
       </c>
       <c r="P191" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="Q191" t="s">
         <v>472</v>
@@ -14261,19 +14261,19 @@
         <v>341</v>
       </c>
       <c r="G192" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="H192" t="s">
-        <v>272</v>
+        <v>337</v>
       </c>
       <c r="I192" t="s">
         <v>473</v>
       </c>
       <c r="J192" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K192" t="s">
-        <v>272</v>
+        <v>337</v>
       </c>
       <c r="L192" t="s">
         <v>480</v>
@@ -14291,7 +14291,7 @@
         <v>478</v>
       </c>
       <c r="Q192" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="R192" t="s">
         <v>474</v>
@@ -14341,25 +14341,25 @@
         <v>286</v>
       </c>
       <c r="L193" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M193" t="s">
         <v>229</v>
       </c>
       <c r="N193" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O193" t="s">
         <v>257</v>
       </c>
       <c r="P193" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q193" t="s">
         <v>331</v>
       </c>
       <c r="R193" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S193" t="s">
         <v>344</v>
